--- a/object_dimensions.xlsx
+++ b/object_dimensions.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H943"/>
+  <dimension ref="A1:H1238"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -17431,6 +17431,5316 @@
         <v>0.2424539344986592</v>
       </c>
     </row>
+    <row r="944">
+      <c r="A944" t="inlineStr"/>
+      <c r="B944" t="inlineStr"/>
+      <c r="C944" t="inlineStr"/>
+      <c r="D944" t="inlineStr"/>
+      <c r="E944" t="n">
+        <v>0.01016670853483456</v>
+      </c>
+      <c r="F944" t="n">
+        <v>0.002012554467508044</v>
+      </c>
+      <c r="G944" t="n">
+        <v>2.046105468163346e-05</v>
+      </c>
+      <c r="H944" t="n">
+        <v>0.02435852600468521</v>
+      </c>
+    </row>
+    <row r="945">
+      <c r="A945" t="inlineStr"/>
+      <c r="B945" t="inlineStr"/>
+      <c r="C945" t="inlineStr"/>
+      <c r="D945" t="inlineStr"/>
+      <c r="E945" t="n">
+        <v>0.02912218671806643</v>
+      </c>
+      <c r="F945" t="n">
+        <v>0.006373872959951229</v>
+      </c>
+      <c r="G945" t="n">
+        <v>0.0001856211184569345</v>
+      </c>
+      <c r="H945" t="n">
+        <v>0.07099211935603533</v>
+      </c>
+    </row>
+    <row r="946">
+      <c r="A946" t="inlineStr"/>
+      <c r="B946" t="inlineStr"/>
+      <c r="C946" t="inlineStr"/>
+      <c r="D946" t="inlineStr"/>
+      <c r="E946" t="n">
+        <v>0.01668761260725469</v>
+      </c>
+      <c r="F946" t="n">
+        <v>0.007394536892723282</v>
+      </c>
+      <c r="G946" t="n">
+        <v>0.000123397167075819</v>
+      </c>
+      <c r="H946" t="n">
+        <v>0.04816429899995595</v>
+      </c>
+    </row>
+    <row r="947">
+      <c r="A947" t="inlineStr"/>
+      <c r="B947" t="inlineStr"/>
+      <c r="C947" t="inlineStr"/>
+      <c r="D947" t="inlineStr"/>
+      <c r="E947" t="n">
+        <v>0.001682297891995607</v>
+      </c>
+      <c r="F947" t="n">
+        <v>0.0009800541990262835</v>
+      </c>
+      <c r="G947" t="n">
+        <v>1.64874311306336e-06</v>
+      </c>
+      <c r="H947" t="n">
+        <v>0.005324704182043781</v>
+      </c>
+    </row>
+    <row r="948">
+      <c r="A948" t="inlineStr"/>
+      <c r="B948" t="inlineStr"/>
+      <c r="C948" t="inlineStr"/>
+      <c r="D948" t="inlineStr"/>
+      <c r="E948" t="n">
+        <v>0.001548695313808084</v>
+      </c>
+      <c r="F948" t="n">
+        <v>0.0008422728665645364</v>
+      </c>
+      <c r="G948" t="n">
+        <v>1.304424041396199e-06</v>
+      </c>
+      <c r="H948" t="n">
+        <v>0.004781936360745241</v>
+      </c>
+    </row>
+    <row r="949">
+      <c r="A949" t="inlineStr"/>
+      <c r="B949" t="inlineStr"/>
+      <c r="C949" t="inlineStr"/>
+      <c r="D949" t="inlineStr"/>
+      <c r="E949" t="n">
+        <v>0.02915526958983499</v>
+      </c>
+      <c r="F949" t="n">
+        <v>0.006322021975267694</v>
+      </c>
+      <c r="G949" t="n">
+        <v>0.0001843202550417907</v>
+      </c>
+      <c r="H949" t="n">
+        <v>0.07095458313020538</v>
+      </c>
+    </row>
+    <row r="950">
+      <c r="A950" t="inlineStr"/>
+      <c r="B950" t="inlineStr"/>
+      <c r="C950" t="inlineStr"/>
+      <c r="D950" t="inlineStr"/>
+      <c r="E950" t="n">
+        <v>0.02863086651855162</v>
+      </c>
+      <c r="F950" t="n">
+        <v>0.006314305436688785</v>
+      </c>
+      <c r="G950" t="n">
+        <v>0.0001807840361152014</v>
+      </c>
+      <c r="H950" t="n">
+        <v>0.06989034391048081</v>
+      </c>
+    </row>
+    <row r="951">
+      <c r="A951" t="inlineStr"/>
+      <c r="B951" t="inlineStr"/>
+      <c r="C951" t="inlineStr"/>
+      <c r="D951" t="inlineStr"/>
+      <c r="E951" t="n">
+        <v>0.04084620328943796</v>
+      </c>
+      <c r="F951" t="n">
+        <v>0.01017497071599575</v>
+      </c>
+      <c r="G951" t="n">
+        <v>0.0004156089223296407</v>
+      </c>
+      <c r="H951" t="n">
+        <v>0.1020423480108674</v>
+      </c>
+    </row>
+    <row r="952">
+      <c r="A952" t="inlineStr"/>
+      <c r="B952" t="inlineStr"/>
+      <c r="C952" t="inlineStr"/>
+      <c r="D952" t="inlineStr"/>
+      <c r="E952" t="n">
+        <v>0.04066176613704857</v>
+      </c>
+      <c r="F952" t="n">
+        <v>0.011709624270091</v>
+      </c>
+      <c r="G952" t="n">
+        <v>0.0004761340036231483</v>
+      </c>
+      <c r="H952" t="n">
+        <v>0.1047427808142791</v>
+      </c>
+    </row>
+    <row r="953">
+      <c r="A953" t="inlineStr"/>
+      <c r="B953" t="inlineStr"/>
+      <c r="C953" t="inlineStr"/>
+      <c r="D953" t="inlineStr"/>
+      <c r="E953" t="n">
+        <v>0.04128339176095921</v>
+      </c>
+      <c r="F953" t="n">
+        <v>0.0122631669317432</v>
+      </c>
+      <c r="G953" t="n">
+        <v>0.0005062651246731946</v>
+      </c>
+      <c r="H953" t="n">
+        <v>0.1070931173854048</v>
+      </c>
+    </row>
+    <row r="954">
+      <c r="A954" t="inlineStr"/>
+      <c r="B954" t="inlineStr"/>
+      <c r="C954" t="inlineStr"/>
+      <c r="D954" t="inlineStr"/>
+      <c r="E954" t="n">
+        <v>0.03170073278589423</v>
+      </c>
+      <c r="F954" t="n">
+        <v>0.007186053762597585</v>
+      </c>
+      <c r="G954" t="n">
+        <v>0.0002278031701131759</v>
+      </c>
+      <c r="H954" t="n">
+        <v>0.07777357309698364</v>
+      </c>
+    </row>
+    <row r="955">
+      <c r="A955" t="inlineStr"/>
+      <c r="B955" t="inlineStr"/>
+      <c r="C955" t="inlineStr"/>
+      <c r="D955" t="inlineStr"/>
+      <c r="E955" t="n">
+        <v>0.03730045985931613</v>
+      </c>
+      <c r="F955" t="n">
+        <v>0.01100772444932925</v>
+      </c>
+      <c r="G955" t="n">
+        <v>0.0004105931839646186</v>
+      </c>
+      <c r="H955" t="n">
+        <v>0.09661636861729075</v>
+      </c>
+    </row>
+    <row r="956">
+      <c r="A956" t="inlineStr"/>
+      <c r="B956" t="inlineStr"/>
+      <c r="C956" t="inlineStr"/>
+      <c r="D956" t="inlineStr"/>
+      <c r="E956" t="n">
+        <v>0.04011470075794094</v>
+      </c>
+      <c r="F956" t="n">
+        <v>0.01886585478844548</v>
+      </c>
+      <c r="G956" t="n">
+        <v>0.0007567981193812576</v>
+      </c>
+      <c r="H956" t="n">
+        <v>0.1179611110927728</v>
+      </c>
+    </row>
+    <row r="957">
+      <c r="A957" t="inlineStr"/>
+      <c r="B957" t="inlineStr"/>
+      <c r="C957" t="inlineStr"/>
+      <c r="D957" t="inlineStr"/>
+      <c r="E957" t="n">
+        <v>0.04013713257267959</v>
+      </c>
+      <c r="F957" t="n">
+        <v>0.01870115325081188</v>
+      </c>
+      <c r="G957" t="n">
+        <v>0.0007506106672898343</v>
+      </c>
+      <c r="H957" t="n">
+        <v>0.1176765716469829</v>
+      </c>
+    </row>
+    <row r="958">
+      <c r="A958" t="inlineStr"/>
+      <c r="B958" t="inlineStr"/>
+      <c r="C958" t="inlineStr"/>
+      <c r="D958" t="inlineStr"/>
+      <c r="E958" t="n">
+        <v>0.0417036432590789</v>
+      </c>
+      <c r="F958" t="n">
+        <v>0.01239390346357691</v>
+      </c>
+      <c r="G958" t="n">
+        <v>0.0005168709286324739</v>
+      </c>
+      <c r="H958" t="n">
+        <v>0.1081950934453116</v>
+      </c>
+    </row>
+    <row r="959">
+      <c r="A959" t="inlineStr"/>
+      <c r="B959" t="inlineStr"/>
+      <c r="C959" t="inlineStr"/>
+      <c r="D959" t="inlineStr"/>
+      <c r="E959" t="n">
+        <v>0.04155351542932097</v>
+      </c>
+      <c r="F959" t="n">
+        <v>0.01235204904938391</v>
+      </c>
+      <c r="G959" t="n">
+        <v>0.0005132710607573039</v>
+      </c>
+      <c r="H959" t="n">
+        <v>0.1078111289574098</v>
+      </c>
+    </row>
+    <row r="960">
+      <c r="A960" t="inlineStr"/>
+      <c r="B960" t="inlineStr"/>
+      <c r="C960" t="inlineStr"/>
+      <c r="D960" t="inlineStr"/>
+      <c r="E960" t="n">
+        <v>0.04120248584231791</v>
+      </c>
+      <c r="F960" t="n">
+        <v>0.01236015756848803</v>
+      </c>
+      <c r="G960" t="n">
+        <v>0.0005092692172244468</v>
+      </c>
+      <c r="H960" t="n">
+        <v>0.1071252868216119</v>
+      </c>
+    </row>
+    <row r="961">
+      <c r="A961" t="inlineStr"/>
+      <c r="B961" t="inlineStr"/>
+      <c r="C961" t="inlineStr"/>
+      <c r="D961" t="inlineStr"/>
+      <c r="E961" t="n">
+        <v>0.03958876960286781</v>
+      </c>
+      <c r="F961" t="n">
+        <v>0.01853113329864745</v>
+      </c>
+      <c r="G961" t="n">
+        <v>0.0007336247666401855</v>
+      </c>
+      <c r="H961" t="n">
+        <v>0.1162398058030305</v>
+      </c>
+    </row>
+    <row r="962">
+      <c r="A962" t="inlineStr"/>
+      <c r="B962" t="inlineStr"/>
+      <c r="C962" t="inlineStr"/>
+      <c r="D962" t="inlineStr"/>
+      <c r="E962" t="n">
+        <v>0.04114447557018014</v>
+      </c>
+      <c r="F962" t="n">
+        <v>0.01236015756848803</v>
+      </c>
+      <c r="G962" t="n">
+        <v>0.000508552201120233</v>
+      </c>
+      <c r="H962" t="n">
+        <v>0.1070092662773363</v>
+      </c>
+    </row>
+    <row r="963">
+      <c r="A963" t="inlineStr"/>
+      <c r="B963" t="inlineStr"/>
+      <c r="C963" t="inlineStr"/>
+      <c r="D963" t="inlineStr"/>
+      <c r="E963" t="n">
+        <v>0.04101345874737195</v>
+      </c>
+      <c r="F963" t="n">
+        <v>0.01230214871914708</v>
+      </c>
+      <c r="G963" t="n">
+        <v>0.0005045536689967734</v>
+      </c>
+      <c r="H963" t="n">
+        <v>0.1066312149330381</v>
+      </c>
+    </row>
+    <row r="964">
+      <c r="A964" t="inlineStr"/>
+      <c r="B964" t="inlineStr"/>
+      <c r="C964" t="inlineStr"/>
+      <c r="D964" t="inlineStr"/>
+      <c r="E964" t="n">
+        <v>0.04114059987162958</v>
+      </c>
+      <c r="F964" t="n">
+        <v>0.01220221289297506</v>
+      </c>
+      <c r="G964" t="n">
+        <v>0.0005020063581783266</v>
+      </c>
+      <c r="H964" t="n">
+        <v>0.1066856255292093</v>
+      </c>
+    </row>
+    <row r="965">
+      <c r="A965" t="inlineStr"/>
+      <c r="B965" t="inlineStr"/>
+      <c r="C965" t="inlineStr"/>
+      <c r="D965" t="inlineStr"/>
+      <c r="E965" t="n">
+        <v>0.04106772421826705</v>
+      </c>
+      <c r="F965" t="n">
+        <v>0.01214404469038974</v>
+      </c>
+      <c r="G965" t="n">
+        <v>0.0004987282782392359</v>
+      </c>
+      <c r="H965" t="n">
+        <v>0.1064235378173136</v>
+      </c>
+    </row>
+    <row r="966">
+      <c r="A966" t="inlineStr"/>
+      <c r="B966" t="inlineStr"/>
+      <c r="C966" t="inlineStr"/>
+      <c r="D966" t="inlineStr"/>
+      <c r="E966" t="n">
+        <v>0.04113547211187326</v>
+      </c>
+      <c r="F966" t="n">
+        <v>0.01211000427635814</v>
+      </c>
+      <c r="G966" t="n">
+        <v>0.0004981507431847961</v>
+      </c>
+      <c r="H966" t="n">
+        <v>0.1064909527764628</v>
+      </c>
+    </row>
+    <row r="967">
+      <c r="A967" t="inlineStr"/>
+      <c r="B967" t="inlineStr"/>
+      <c r="C967" t="inlineStr"/>
+      <c r="D967" t="inlineStr"/>
+      <c r="E967" t="n">
+        <v>0.04067358957866205</v>
+      </c>
+      <c r="F967" t="n">
+        <v>0.01200614864493399</v>
+      </c>
+      <c r="G967" t="n">
+        <v>0.0004883331624044549</v>
+      </c>
+      <c r="H967" t="n">
+        <v>0.1053594764471921</v>
+      </c>
+    </row>
+    <row r="968">
+      <c r="A968" t="inlineStr"/>
+      <c r="B968" t="inlineStr"/>
+      <c r="C968" t="inlineStr"/>
+      <c r="D968" t="inlineStr"/>
+      <c r="E968" t="n">
+        <v>0.03275457278362686</v>
+      </c>
+      <c r="F968" t="n">
+        <v>0.01210092114142908</v>
+      </c>
+      <c r="G968" t="n">
+        <v>0.0003963605022758678</v>
+      </c>
+      <c r="H968" t="n">
+        <v>0.08971098785011189</v>
+      </c>
+    </row>
+    <row r="969">
+      <c r="A969" t="inlineStr"/>
+      <c r="B969" t="inlineStr"/>
+      <c r="C969" t="inlineStr"/>
+      <c r="D969" t="inlineStr"/>
+      <c r="E969" t="n">
+        <v>0.001771643841401179</v>
+      </c>
+      <c r="F969" t="n">
+        <v>0.001678399428695854</v>
+      </c>
+      <c r="G969" t="n">
+        <v>2.973526011260268e-06</v>
+      </c>
+      <c r="H969" t="n">
+        <v>0.006900086540194067</v>
+      </c>
+    </row>
+    <row r="970">
+      <c r="A970" t="inlineStr"/>
+      <c r="B970" t="inlineStr"/>
+      <c r="C970" t="inlineStr"/>
+      <c r="D970" t="inlineStr"/>
+      <c r="E970" t="n">
+        <v>0.0101742429554199</v>
+      </c>
+      <c r="F970" t="n">
+        <v>0.002118663809102553</v>
+      </c>
+      <c r="G970" t="n">
+        <v>2.155580033466475e-05</v>
+      </c>
+      <c r="H970" t="n">
+        <v>0.02458581352904492</v>
+      </c>
+    </row>
+    <row r="971">
+      <c r="A971" t="inlineStr"/>
+      <c r="B971" t="inlineStr"/>
+      <c r="C971" t="inlineStr"/>
+      <c r="D971" t="inlineStr"/>
+      <c r="E971" t="n">
+        <v>0.01017044124230423</v>
+      </c>
+      <c r="F971" t="n">
+        <v>0.002037563322995481</v>
+      </c>
+      <c r="G971" t="n">
+        <v>2.072291805399971e-05</v>
+      </c>
+      <c r="H971" t="n">
+        <v>0.02441600913059943</v>
+      </c>
+    </row>
+    <row r="972">
+      <c r="A972" t="inlineStr"/>
+      <c r="B972" t="inlineStr"/>
+      <c r="C972" t="inlineStr"/>
+      <c r="D972" t="inlineStr"/>
+      <c r="E972" t="n">
+        <v>0.001771643841401179</v>
+      </c>
+      <c r="F972" t="n">
+        <v>0.001678399428695854</v>
+      </c>
+      <c r="G972" t="n">
+        <v>2.973526011260268e-06</v>
+      </c>
+      <c r="H972" t="n">
+        <v>0.006900086540194067</v>
+      </c>
+    </row>
+    <row r="973">
+      <c r="A973" t="inlineStr"/>
+      <c r="B973" t="inlineStr"/>
+      <c r="C973" t="inlineStr"/>
+      <c r="D973" t="inlineStr"/>
+      <c r="E973" t="n">
+        <v>0.01026099870320606</v>
+      </c>
+      <c r="F973" t="n">
+        <v>0.001822331156131691</v>
+      </c>
+      <c r="G973" t="n">
+        <v>1.869893762987928e-05</v>
+      </c>
+      <c r="H973" t="n">
+        <v>0.0241666597186755</v>
+      </c>
+    </row>
+    <row r="974">
+      <c r="A974" t="inlineStr"/>
+      <c r="B974" t="inlineStr"/>
+      <c r="C974" t="inlineStr"/>
+      <c r="D974" t="inlineStr"/>
+      <c r="E974" t="n">
+        <v>0.01026007601946523</v>
+      </c>
+      <c r="F974" t="n">
+        <v>0.001822331156131691</v>
+      </c>
+      <c r="G974" t="n">
+        <v>1.86972561945511e-05</v>
+      </c>
+      <c r="H974" t="n">
+        <v>0.02416481435119383</v>
+      </c>
+    </row>
+    <row r="975">
+      <c r="A975" t="inlineStr"/>
+      <c r="B975" t="inlineStr"/>
+      <c r="C975" t="inlineStr"/>
+      <c r="D975" t="inlineStr"/>
+      <c r="E975" t="n">
+        <v>0.01026259294704817</v>
+      </c>
+      <c r="F975" t="n">
+        <v>0.002043995253891264</v>
+      </c>
+      <c r="G975" t="n">
+        <v>2.097669127638442e-05</v>
+      </c>
+      <c r="H975" t="n">
+        <v>0.02461317640187887</v>
+      </c>
+    </row>
+    <row r="976">
+      <c r="A976" t="inlineStr"/>
+      <c r="B976" t="inlineStr"/>
+      <c r="C976" t="inlineStr"/>
+      <c r="D976" t="inlineStr"/>
+      <c r="E976" t="n">
+        <v>0.02983559981073388</v>
+      </c>
+      <c r="F976" t="n">
+        <v>0.01201367950852728</v>
+      </c>
+      <c r="G976" t="n">
+        <v>0.0003584353340708339</v>
+      </c>
+      <c r="H976" t="n">
+        <v>0.0836985586385223</v>
+      </c>
+    </row>
+    <row r="977">
+      <c r="A977" t="inlineStr"/>
+      <c r="B977" t="inlineStr"/>
+      <c r="C977" t="inlineStr"/>
+      <c r="D977" t="inlineStr"/>
+      <c r="E977" t="n">
+        <v>0.03141485021990179</v>
+      </c>
+      <c r="F977" t="n">
+        <v>0.007283342475277198</v>
+      </c>
+      <c r="G977" t="n">
+        <v>0.0002288051129610819</v>
+      </c>
+      <c r="H977" t="n">
+        <v>0.07739638539035797</v>
+      </c>
+    </row>
+    <row r="978">
+      <c r="A978" t="inlineStr"/>
+      <c r="B978" t="inlineStr"/>
+      <c r="C978" t="inlineStr"/>
+      <c r="D978" t="inlineStr"/>
+      <c r="E978" t="n">
+        <v>0.01151367384579591</v>
+      </c>
+      <c r="F978" t="n">
+        <v>0.004354460433898396</v>
+      </c>
+      <c r="G978" t="n">
+        <v>5.013583721032909e-05</v>
+      </c>
+      <c r="H978" t="n">
+        <v>0.03173626855938862</v>
+      </c>
+    </row>
+    <row r="979">
+      <c r="A979" t="inlineStr"/>
+      <c r="B979" t="inlineStr"/>
+      <c r="C979" t="inlineStr"/>
+      <c r="D979" t="inlineStr"/>
+      <c r="E979" t="n">
+        <v>0.03228118266969726</v>
+      </c>
+      <c r="F979" t="n">
+        <v>0.007618583285916258</v>
+      </c>
+      <c r="G979" t="n">
+        <v>0.0002459368787369651</v>
+      </c>
+      <c r="H979" t="n">
+        <v>0.07979953191122705</v>
+      </c>
+    </row>
+    <row r="980">
+      <c r="A980" t="inlineStr"/>
+      <c r="B980" t="inlineStr"/>
+      <c r="C980" t="inlineStr"/>
+      <c r="D980" t="inlineStr"/>
+      <c r="E980" t="n">
+        <v>0.03526471647130908</v>
+      </c>
+      <c r="F980" t="n">
+        <v>0.03050719405912893</v>
+      </c>
+      <c r="G980" t="n">
+        <v>0.001075827548830386</v>
+      </c>
+      <c r="H980" t="n">
+        <v>0.131543821060876</v>
+      </c>
+    </row>
+    <row r="981">
+      <c r="A981" t="inlineStr"/>
+      <c r="B981" t="inlineStr"/>
+      <c r="C981" t="inlineStr"/>
+      <c r="D981" t="inlineStr"/>
+      <c r="E981" t="n">
+        <v>0.03449735661423527</v>
+      </c>
+      <c r="F981" t="n">
+        <v>0.02923549256600042</v>
+      </c>
+      <c r="G981" t="n">
+        <v>0.001008547212842141</v>
+      </c>
+      <c r="H981" t="n">
+        <v>0.1274656983604714</v>
+      </c>
+    </row>
+    <row r="982">
+      <c r="A982" t="inlineStr"/>
+      <c r="B982" t="inlineStr"/>
+      <c r="C982" t="inlineStr"/>
+      <c r="D982" t="inlineStr"/>
+      <c r="E982" t="n">
+        <v>0.03551772104827573</v>
+      </c>
+      <c r="F982" t="n">
+        <v>0.02995579484089318</v>
+      </c>
+      <c r="G982" t="n">
+        <v>0.001063961564938221</v>
+      </c>
+      <c r="H982" t="n">
+        <v>0.1309470317783378</v>
+      </c>
+    </row>
+    <row r="983">
+      <c r="A983" t="inlineStr"/>
+      <c r="B983" t="inlineStr"/>
+      <c r="C983" t="inlineStr"/>
+      <c r="D983" t="inlineStr"/>
+      <c r="E983" t="n">
+        <v>0.01835401501312445</v>
+      </c>
+      <c r="F983" t="n">
+        <v>0.007941025327718483</v>
+      </c>
+      <c r="G983" t="n">
+        <v>0.0001457496980845465</v>
+      </c>
+      <c r="H983" t="n">
+        <v>0.05259008068168586</v>
+      </c>
+    </row>
+    <row r="984">
+      <c r="A984" t="inlineStr"/>
+      <c r="B984" t="inlineStr"/>
+      <c r="C984" t="inlineStr"/>
+      <c r="D984" t="inlineStr"/>
+      <c r="E984" t="n">
+        <v>0.04927889811329173</v>
+      </c>
+      <c r="F984" t="n">
+        <v>0.02430861749336664</v>
+      </c>
+      <c r="G984" t="n">
+        <v>0.001197901884730596</v>
+      </c>
+      <c r="H984" t="n">
+        <v>0.1471750312133167</v>
+      </c>
+    </row>
+    <row r="985">
+      <c r="A985" t="inlineStr"/>
+      <c r="B985" t="inlineStr"/>
+      <c r="C985" t="inlineStr"/>
+      <c r="D985" t="inlineStr"/>
+      <c r="E985" t="n">
+        <v>0.04201045516636308</v>
+      </c>
+      <c r="F985" t="n">
+        <v>0.02056071028521613</v>
+      </c>
+      <c r="G985" t="n">
+        <v>0.0008637647976256524</v>
+      </c>
+      <c r="H985" t="n">
+        <v>0.1251423309031584</v>
+      </c>
+    </row>
+    <row r="986">
+      <c r="A986" t="inlineStr"/>
+      <c r="B986" t="inlineStr"/>
+      <c r="C986" t="inlineStr"/>
+      <c r="D986" t="inlineStr"/>
+      <c r="E986" t="n">
+        <v>0.0185021594641087</v>
+      </c>
+      <c r="F986" t="n">
+        <v>0.007077989498165901</v>
+      </c>
+      <c r="G986" t="n">
+        <v>0.0001309580903803522</v>
+      </c>
+      <c r="H986" t="n">
+        <v>0.0511602979245492</v>
+      </c>
+    </row>
+    <row r="987">
+      <c r="A987" t="inlineStr"/>
+      <c r="B987" t="inlineStr"/>
+      <c r="C987" t="inlineStr"/>
+      <c r="D987" t="inlineStr"/>
+      <c r="E987" t="n">
+        <v>0.0499206819226151</v>
+      </c>
+      <c r="F987" t="n">
+        <v>0.02795004400995138</v>
+      </c>
+      <c r="G987" t="n">
+        <v>0.001395285256743877</v>
+      </c>
+      <c r="H987" t="n">
+        <v>0.155741451865133</v>
+      </c>
+    </row>
+    <row r="988">
+      <c r="A988" t="inlineStr"/>
+      <c r="B988" t="inlineStr"/>
+      <c r="C988" t="inlineStr"/>
+      <c r="D988" t="inlineStr"/>
+      <c r="E988" t="n">
+        <v>0.0184833557812731</v>
+      </c>
+      <c r="F988" t="n">
+        <v>0.007241843760290378</v>
+      </c>
+      <c r="G988" t="n">
+        <v>0.0001338535747338397</v>
+      </c>
+      <c r="H988" t="n">
+        <v>0.05145039908312696</v>
+      </c>
+    </row>
+    <row r="989">
+      <c r="A989" t="inlineStr"/>
+      <c r="B989" t="inlineStr"/>
+      <c r="C989" t="inlineStr"/>
+      <c r="D989" t="inlineStr"/>
+      <c r="E989" t="n">
+        <v>0.04993406759514214</v>
+      </c>
+      <c r="F989" t="n">
+        <v>0.02377210926669849</v>
+      </c>
+      <c r="G989" t="n">
+        <v>0.001187038111002427</v>
+      </c>
+      <c r="H989" t="n">
+        <v>0.1474123537236812</v>
+      </c>
+    </row>
+    <row r="990">
+      <c r="A990" t="inlineStr"/>
+      <c r="B990" t="inlineStr"/>
+      <c r="C990" t="inlineStr"/>
+      <c r="D990" t="inlineStr"/>
+      <c r="E990" t="n">
+        <v>0.01839202787589068</v>
+      </c>
+      <c r="F990" t="n">
+        <v>0.007204237817416012</v>
+      </c>
+      <c r="G990" t="n">
+        <v>0.0001325005427624612</v>
+      </c>
+      <c r="H990" t="n">
+        <v>0.05119253138661339</v>
+      </c>
+    </row>
+    <row r="991">
+      <c r="A991" t="inlineStr"/>
+      <c r="B991" t="inlineStr"/>
+      <c r="C991" t="inlineStr"/>
+      <c r="D991" t="inlineStr"/>
+      <c r="E991" t="n">
+        <v>0.05010497964091568</v>
+      </c>
+      <c r="F991" t="n">
+        <v>0.02686744075161007</v>
+      </c>
+      <c r="G991" t="n">
+        <v>0.00134619257186293</v>
+      </c>
+      <c r="H991" t="n">
+        <v>0.1539448407850515</v>
+      </c>
+    </row>
+    <row r="992">
+      <c r="A992" t="inlineStr"/>
+      <c r="B992" t="inlineStr"/>
+      <c r="C992" t="inlineStr"/>
+      <c r="D992" t="inlineStr"/>
+      <c r="E992" t="n">
+        <v>0.0442018354534334</v>
+      </c>
+      <c r="F992" t="n">
+        <v>0.02268050112725347</v>
+      </c>
+      <c r="G992" t="n">
+        <v>0.001002519778828268</v>
+      </c>
+      <c r="H992" t="n">
+        <v>0.1337646731613737</v>
+      </c>
+    </row>
+    <row r="993">
+      <c r="A993" t="inlineStr"/>
+      <c r="B993" t="inlineStr"/>
+      <c r="C993" t="inlineStr"/>
+      <c r="D993" t="inlineStr"/>
+      <c r="E993" t="n">
+        <v>0.05000241875460203</v>
+      </c>
+      <c r="F993" t="n">
+        <v>0.0266554610982876</v>
+      </c>
+      <c r="G993" t="n">
+        <v>0.001332837527933581</v>
+      </c>
+      <c r="H993" t="n">
+        <v>0.1533157597057793</v>
+      </c>
+    </row>
+    <row r="994">
+      <c r="A994" t="inlineStr"/>
+      <c r="B994" t="inlineStr"/>
+      <c r="C994" t="inlineStr"/>
+      <c r="D994" t="inlineStr"/>
+      <c r="E994" t="n">
+        <v>0.04398992978554582</v>
+      </c>
+      <c r="F994" t="n">
+        <v>0.02269227192538444</v>
+      </c>
+      <c r="G994" t="n">
+        <v>0.0009982314486721741</v>
+      </c>
+      <c r="H994" t="n">
+        <v>0.1333644034218605</v>
+      </c>
+    </row>
+    <row r="995">
+      <c r="A995" t="inlineStr"/>
+      <c r="B995" t="inlineStr"/>
+      <c r="C995" t="inlineStr"/>
+      <c r="D995" t="inlineStr"/>
+      <c r="E995" t="n">
+        <v>0.04021005660113416</v>
+      </c>
+      <c r="F995" t="n">
+        <v>0.02016310117576515</v>
+      </c>
+      <c r="G995" t="n">
+        <v>0.0008107594395319114</v>
+      </c>
+      <c r="H995" t="n">
+        <v>0.1207463155537986</v>
+      </c>
+    </row>
+    <row r="996">
+      <c r="A996" t="inlineStr"/>
+      <c r="B996" t="inlineStr"/>
+      <c r="C996" t="inlineStr"/>
+      <c r="D996" t="inlineStr"/>
+      <c r="E996" t="n">
+        <v>0.04959462811107331</v>
+      </c>
+      <c r="F996" t="n">
+        <v>0.02364878266072795</v>
+      </c>
+      <c r="G996" t="n">
+        <v>0.001172852581338402</v>
+      </c>
+      <c r="H996" t="n">
+        <v>0.1464868215436025</v>
+      </c>
+    </row>
+    <row r="997">
+      <c r="A997" t="inlineStr"/>
+      <c r="B997" t="inlineStr"/>
+      <c r="C997" t="inlineStr"/>
+      <c r="D997" t="inlineStr"/>
+      <c r="E997" t="n">
+        <v>0.05001332876065404</v>
+      </c>
+      <c r="F997" t="n">
+        <v>0.02681076221730023</v>
+      </c>
+      <c r="G997" t="n">
+        <v>0.001340895465097558</v>
+      </c>
+      <c r="H997" t="n">
+        <v>0.1536481819559085</v>
+      </c>
+    </row>
+    <row r="998">
+      <c r="A998" t="inlineStr"/>
+      <c r="B998" t="inlineStr"/>
+      <c r="C998" t="inlineStr"/>
+      <c r="D998" t="inlineStr"/>
+      <c r="E998" t="n">
+        <v>0.007516447815853212</v>
+      </c>
+      <c r="F998" t="n">
+        <v>0.003956025035191457</v>
+      </c>
+      <c r="G998" t="n">
+        <v>2.973525573522545e-05</v>
+      </c>
+      <c r="H998" t="n">
+        <v>0.02294494570208934</v>
+      </c>
+    </row>
+    <row r="999">
+      <c r="A999" t="inlineStr"/>
+      <c r="B999" t="inlineStr"/>
+      <c r="C999" t="inlineStr"/>
+      <c r="D999" t="inlineStr"/>
+      <c r="E999" t="n">
+        <v>0.006829687264704975</v>
+      </c>
+      <c r="F999" t="n">
+        <v>0.003634281230930965</v>
+      </c>
+      <c r="G999" t="n">
+        <v>2.482100423924554e-05</v>
+      </c>
+      <c r="H999" t="n">
+        <v>0.02092793699127188</v>
+      </c>
+    </row>
+    <row r="1000">
+      <c r="A1000" t="inlineStr"/>
+      <c r="B1000" t="inlineStr"/>
+      <c r="C1000" t="inlineStr"/>
+      <c r="D1000" t="inlineStr"/>
+      <c r="E1000" t="n">
+        <v>0.01077088640128357</v>
+      </c>
+      <c r="F1000" t="n">
+        <v>0.004333956153158045</v>
+      </c>
+      <c r="G1000" t="n">
+        <v>4.668054939380923e-05</v>
+      </c>
+      <c r="H1000" t="n">
+        <v>0.03020968510888323</v>
+      </c>
+    </row>
+    <row r="1001">
+      <c r="A1001" t="inlineStr"/>
+      <c r="B1001" t="inlineStr"/>
+      <c r="C1001" t="inlineStr"/>
+      <c r="D1001" t="inlineStr"/>
+      <c r="E1001" t="n">
+        <v>0.01078355996399983</v>
+      </c>
+      <c r="F1001" t="n">
+        <v>0.004386192004382669</v>
+      </c>
+      <c r="G1001" t="n">
+        <v>4.72987644928771e-05</v>
+      </c>
+      <c r="H1001" t="n">
+        <v>0.03033950393676499</v>
+      </c>
+    </row>
+    <row r="1002">
+      <c r="A1002" t="inlineStr"/>
+      <c r="B1002" t="inlineStr"/>
+      <c r="C1002" t="inlineStr"/>
+      <c r="D1002" t="inlineStr"/>
+      <c r="E1002" t="n">
+        <v>0.05179350369181629</v>
+      </c>
+      <c r="F1002" t="n">
+        <v>0.02476153925217571</v>
+      </c>
+      <c r="G1002" t="n">
+        <v>0.001282486874672617</v>
+      </c>
+      <c r="H1002" t="n">
+        <v>0.153110085887984</v>
+      </c>
+    </row>
+    <row r="1003">
+      <c r="A1003" t="inlineStr"/>
+      <c r="B1003" t="inlineStr"/>
+      <c r="C1003" t="inlineStr"/>
+      <c r="D1003" t="inlineStr"/>
+      <c r="E1003" t="n">
+        <v>0.04532615226908207</v>
+      </c>
+      <c r="F1003" t="n">
+        <v>0.02305169601365339</v>
+      </c>
+      <c r="G1003" t="n">
+        <v>0.001044844683575445</v>
+      </c>
+      <c r="H1003" t="n">
+        <v>0.1367556965654709</v>
+      </c>
+    </row>
+    <row r="1004">
+      <c r="A1004" t="inlineStr"/>
+      <c r="B1004" t="inlineStr"/>
+      <c r="C1004" t="inlineStr"/>
+      <c r="D1004" t="inlineStr"/>
+      <c r="E1004" t="n">
+        <v>0.04617372371994669</v>
+      </c>
+      <c r="F1004" t="n">
+        <v>0.02326787149481197</v>
+      </c>
+      <c r="G1004" t="n">
+        <v>0.001074364269952671</v>
+      </c>
+      <c r="H1004" t="n">
+        <v>0.1388831904295173</v>
+      </c>
+    </row>
+    <row r="1005">
+      <c r="A1005" t="inlineStr"/>
+      <c r="B1005" t="inlineStr"/>
+      <c r="C1005" t="inlineStr"/>
+      <c r="D1005" t="inlineStr"/>
+      <c r="E1005" t="n">
+        <v>0.04619846615672869</v>
+      </c>
+      <c r="F1005" t="n">
+        <v>0.02321443693726251</v>
+      </c>
+      <c r="G1005" t="n">
+        <v>0.001072471379193635</v>
+      </c>
+      <c r="H1005" t="n">
+        <v>0.1388258061879824</v>
+      </c>
+    </row>
+    <row r="1006">
+      <c r="A1006" t="inlineStr"/>
+      <c r="B1006" t="inlineStr"/>
+      <c r="C1006" t="inlineStr"/>
+      <c r="D1006" t="inlineStr"/>
+      <c r="E1006" t="n">
+        <v>0.04709792700779112</v>
+      </c>
+      <c r="F1006" t="n">
+        <v>0.03249821609734116</v>
+      </c>
+      <c r="G1006" t="n">
+        <v>0.001530598609635996</v>
+      </c>
+      <c r="H1006" t="n">
+        <v>0.1591922862102645</v>
+      </c>
+    </row>
+    <row r="1007">
+      <c r="A1007" t="inlineStr"/>
+      <c r="B1007" t="inlineStr"/>
+      <c r="C1007" t="inlineStr"/>
+      <c r="D1007" t="inlineStr"/>
+      <c r="E1007" t="n">
+        <v>0.0460987963935629</v>
+      </c>
+      <c r="F1007" t="n">
+        <v>0.02299784457663429</v>
+      </c>
+      <c r="G1007" t="n">
+        <v>0.001060172954629069</v>
+      </c>
+      <c r="H1007" t="n">
+        <v>0.1381932819403944</v>
+      </c>
+    </row>
+    <row r="1008">
+      <c r="A1008" t="inlineStr"/>
+      <c r="B1008" t="inlineStr"/>
+      <c r="C1008" t="inlineStr"/>
+      <c r="D1008" t="inlineStr"/>
+      <c r="E1008" t="n">
+        <v>0.0449926543845533</v>
+      </c>
+      <c r="F1008" t="n">
+        <v>0.0223117776389381</v>
+      </c>
+      <c r="G1008" t="n">
+        <v>0.001003866100013747</v>
+      </c>
+      <c r="H1008" t="n">
+        <v>0.1346088640469828</v>
+      </c>
+    </row>
+    <row r="1009">
+      <c r="A1009" t="inlineStr"/>
+      <c r="B1009" t="inlineStr"/>
+      <c r="C1009" t="inlineStr"/>
+      <c r="D1009" t="inlineStr"/>
+      <c r="E1009" t="n">
+        <v>0.04556237068911059</v>
+      </c>
+      <c r="F1009" t="n">
+        <v>0.02344899210780292</v>
+      </c>
+      <c r="G1009" t="n">
+        <v>0.001068391670701745</v>
+      </c>
+      <c r="H1009" t="n">
+        <v>0.138022725593827</v>
+      </c>
+    </row>
+    <row r="1010">
+      <c r="A1010" t="inlineStr"/>
+      <c r="B1010" t="inlineStr"/>
+      <c r="C1010" t="inlineStr"/>
+      <c r="D1010" t="inlineStr"/>
+      <c r="E1010" t="n">
+        <v>0.04296057042997944</v>
+      </c>
+      <c r="F1010" t="n">
+        <v>0.02108361230584941</v>
+      </c>
+      <c r="G1010" t="n">
+        <v>0.0009057640113838251</v>
+      </c>
+      <c r="H1010" t="n">
+        <v>0.1280883654716577</v>
+      </c>
+    </row>
+    <row r="1011">
+      <c r="A1011" t="inlineStr"/>
+      <c r="B1011" t="inlineStr"/>
+      <c r="C1011" t="inlineStr"/>
+      <c r="D1011" t="inlineStr"/>
+      <c r="E1011" t="n">
+        <v>0.05238569449501697</v>
+      </c>
+      <c r="F1011" t="n">
+        <v>0.02478726341876678</v>
+      </c>
+      <c r="G1011" t="n">
+        <v>0.001298498008823026</v>
+      </c>
+      <c r="H1011" t="n">
+        <v>0.1543459158275675</v>
+      </c>
+    </row>
+    <row r="1012">
+      <c r="A1012" t="inlineStr"/>
+      <c r="B1012" t="inlineStr"/>
+      <c r="C1012" t="inlineStr"/>
+      <c r="D1012" t="inlineStr"/>
+      <c r="E1012" t="n">
+        <v>0.04635412012935386</v>
+      </c>
+      <c r="F1012" t="n">
+        <v>0.0231103237796131</v>
+      </c>
+      <c r="G1012" t="n">
+        <v>0.001071258724708449</v>
+      </c>
+      <c r="H1012" t="n">
+        <v>0.1389288878179339</v>
+      </c>
+    </row>
+    <row r="1013">
+      <c r="A1013" t="inlineStr"/>
+      <c r="B1013" t="inlineStr"/>
+      <c r="C1013" t="inlineStr"/>
+      <c r="D1013" t="inlineStr"/>
+      <c r="E1013" t="n">
+        <v>0.04624516234851624</v>
+      </c>
+      <c r="F1013" t="n">
+        <v>0.023121031748516</v>
+      </c>
+      <c r="G1013" t="n">
+        <v>0.001069235866875321</v>
+      </c>
+      <c r="H1013" t="n">
+        <v>0.1387323881940645</v>
+      </c>
+    </row>
+    <row r="1014">
+      <c r="A1014" t="inlineStr"/>
+      <c r="B1014" t="inlineStr"/>
+      <c r="C1014" t="inlineStr"/>
+      <c r="D1014" t="inlineStr"/>
+      <c r="E1014" t="n">
+        <v>0.04628673931732843</v>
+      </c>
+      <c r="F1014" t="n">
+        <v>0.02278495717893764</v>
+      </c>
+      <c r="G1014" t="n">
+        <v>0.001054641373297978</v>
+      </c>
+      <c r="H1014" t="n">
+        <v>0.1381433929925321</v>
+      </c>
+    </row>
+    <row r="1015">
+      <c r="A1015" t="inlineStr"/>
+      <c r="B1015" t="inlineStr"/>
+      <c r="C1015" t="inlineStr"/>
+      <c r="D1015" t="inlineStr"/>
+      <c r="E1015" t="n">
+        <v>0.04623668532503452</v>
+      </c>
+      <c r="F1015" t="n">
+        <v>0.02304695240903975</v>
+      </c>
+      <c r="G1015" t="n">
+        <v>0.001065614686237817</v>
+      </c>
+      <c r="H1015" t="n">
+        <v>0.1385672754681485</v>
+      </c>
+    </row>
+    <row r="1016">
+      <c r="A1016" t="inlineStr"/>
+      <c r="B1016" t="inlineStr"/>
+      <c r="C1016" t="inlineStr"/>
+      <c r="D1016" t="inlineStr"/>
+      <c r="E1016" t="n">
+        <v>0.04630118639628671</v>
+      </c>
+      <c r="F1016" t="n">
+        <v>0.02294221891197475</v>
+      </c>
+      <c r="G1016" t="n">
+        <v>0.001062251954187757</v>
+      </c>
+      <c r="H1016" t="n">
+        <v>0.1384868106165229</v>
+      </c>
+    </row>
+    <row r="1017">
+      <c r="A1017" t="inlineStr"/>
+      <c r="B1017" t="inlineStr"/>
+      <c r="C1017" t="inlineStr"/>
+      <c r="D1017" t="inlineStr"/>
+      <c r="E1017" t="n">
+        <v>0.04640187488197901</v>
+      </c>
+      <c r="F1017" t="n">
+        <v>0.02253499311878544</v>
+      </c>
+      <c r="G1017" t="n">
+        <v>0.00104566593116414</v>
+      </c>
+      <c r="H1017" t="n">
+        <v>0.1378737360015289</v>
+      </c>
+    </row>
+    <row r="1018">
+      <c r="A1018" t="inlineStr"/>
+      <c r="B1018" t="inlineStr"/>
+      <c r="C1018" t="inlineStr"/>
+      <c r="D1018" t="inlineStr"/>
+      <c r="E1018" t="n">
+        <v>0.05247089156888163</v>
+      </c>
+      <c r="F1018" t="n">
+        <v>0.02426608155949459</v>
+      </c>
+      <c r="G1018" t="n">
+        <v>0.001273262934309879</v>
+      </c>
+      <c r="H1018" t="n">
+        <v>0.1534739462567525</v>
+      </c>
+    </row>
+    <row r="1019">
+      <c r="A1019" t="inlineStr"/>
+      <c r="B1019" t="inlineStr"/>
+      <c r="C1019" t="inlineStr"/>
+      <c r="D1019" t="inlineStr"/>
+      <c r="E1019" t="n">
+        <v>0.04590297402098204</v>
+      </c>
+      <c r="F1019" t="n">
+        <v>0.02210461984405464</v>
+      </c>
+      <c r="G1019" t="n">
+        <v>0.001014667790445324</v>
+      </c>
+      <c r="H1019" t="n">
+        <v>0.1360151877300734</v>
+      </c>
+    </row>
+    <row r="1020">
+      <c r="A1020" t="inlineStr"/>
+      <c r="B1020" t="inlineStr"/>
+      <c r="C1020" t="inlineStr"/>
+      <c r="D1020" t="inlineStr"/>
+      <c r="E1020" t="n">
+        <v>0.05103277406794572</v>
+      </c>
+      <c r="F1020" t="n">
+        <v>0.02414836788699761</v>
+      </c>
+      <c r="G1020" t="n">
+        <v>0.001232358202486785</v>
+      </c>
+      <c r="H1020" t="n">
+        <v>0.1503622839098867</v>
+      </c>
+    </row>
+    <row r="1021">
+      <c r="A1021" t="inlineStr"/>
+      <c r="B1021" t="inlineStr"/>
+      <c r="C1021" t="inlineStr"/>
+      <c r="D1021" t="inlineStr"/>
+      <c r="E1021" t="n">
+        <v>0.04652231178759852</v>
+      </c>
+      <c r="F1021" t="n">
+        <v>0.02233491231530817</v>
+      </c>
+      <c r="G1021" t="n">
+        <v>0.00103907175448144</v>
+      </c>
+      <c r="H1021" t="n">
+        <v>0.1377144482058134</v>
+      </c>
+    </row>
+    <row r="1022">
+      <c r="A1022" t="inlineStr"/>
+      <c r="B1022" t="inlineStr"/>
+      <c r="C1022" t="inlineStr"/>
+      <c r="D1022" t="inlineStr"/>
+      <c r="E1022" t="n">
+        <v>0.04600865367793548</v>
+      </c>
+      <c r="F1022" t="n">
+        <v>0.02176285977836468</v>
+      </c>
+      <c r="G1022" t="n">
+        <v>0.001001279878584252</v>
+      </c>
+      <c r="H1022" t="n">
+        <v>0.1355430269126003</v>
+      </c>
+    </row>
+    <row r="1023">
+      <c r="A1023" t="inlineStr"/>
+      <c r="B1023" t="inlineStr"/>
+      <c r="C1023" t="inlineStr"/>
+      <c r="D1023" t="inlineStr"/>
+      <c r="E1023" t="n">
+        <v>0.05294532601568059</v>
+      </c>
+      <c r="F1023" t="n">
+        <v>0.02511622827261197</v>
+      </c>
+      <c r="G1023" t="n">
+        <v>0.001329786894177695</v>
+      </c>
+      <c r="H1023" t="n">
+        <v>0.1561231085765851</v>
+      </c>
+    </row>
+    <row r="1024">
+      <c r="A1024" t="inlineStr"/>
+      <c r="B1024" t="inlineStr"/>
+      <c r="C1024" t="inlineStr"/>
+      <c r="D1024" t="inlineStr"/>
+      <c r="E1024" t="n">
+        <v>0.04612433275097311</v>
+      </c>
+      <c r="F1024" t="n">
+        <v>0.02222656633710519</v>
+      </c>
+      <c r="G1024" t="n">
+        <v>0.001025185541644217</v>
+      </c>
+      <c r="H1024" t="n">
+        <v>0.1367017981761566</v>
+      </c>
+    </row>
+    <row r="1025">
+      <c r="A1025" t="inlineStr"/>
+      <c r="B1025" t="inlineStr"/>
+      <c r="C1025" t="inlineStr"/>
+      <c r="D1025" t="inlineStr"/>
+      <c r="E1025" t="n">
+        <v>0.05289381507943816</v>
+      </c>
+      <c r="F1025" t="n">
+        <v>0.02914029607605156</v>
+      </c>
+      <c r="G1025" t="n">
+        <v>0.001541341432006749</v>
+      </c>
+      <c r="H1025" t="n">
+        <v>0.1640682223109795</v>
+      </c>
+    </row>
+    <row r="1026">
+      <c r="A1026" t="inlineStr"/>
+      <c r="B1026" t="inlineStr"/>
+      <c r="C1026" t="inlineStr"/>
+      <c r="D1026" t="inlineStr"/>
+      <c r="E1026" t="n">
+        <v>0.04668393581570023</v>
+      </c>
+      <c r="F1026" t="n">
+        <v>0.02304478691227251</v>
+      </c>
+      <c r="G1026" t="n">
+        <v>0.001075821353099019</v>
+      </c>
+      <c r="H1026" t="n">
+        <v>0.1394574454559455</v>
+      </c>
+    </row>
+    <row r="1027">
+      <c r="A1027" t="inlineStr"/>
+      <c r="B1027" t="inlineStr"/>
+      <c r="C1027" t="inlineStr"/>
+      <c r="D1027" t="inlineStr"/>
+      <c r="E1027" t="n">
+        <v>0.04616840530541586</v>
+      </c>
+      <c r="F1027" t="n">
+        <v>0.02329690650961418</v>
+      </c>
+      <c r="G1027" t="n">
+        <v>0.001075581022098249</v>
+      </c>
+      <c r="H1027" t="n">
+        <v>0.1389306236300601</v>
+      </c>
+    </row>
+    <row r="1028">
+      <c r="A1028" t="inlineStr"/>
+      <c r="B1028" t="inlineStr"/>
+      <c r="C1028" t="inlineStr"/>
+      <c r="D1028" t="inlineStr"/>
+      <c r="E1028" t="n">
+        <v>0.04700561025861552</v>
+      </c>
+      <c r="F1028" t="n">
+        <v>0.02340878671512978</v>
+      </c>
+      <c r="G1028" t="n">
+        <v>0.001100344304958447</v>
+      </c>
+      <c r="H1028" t="n">
+        <v>0.1408287939474906</v>
+      </c>
+    </row>
+    <row r="1029">
+      <c r="A1029" t="inlineStr"/>
+      <c r="B1029" t="inlineStr"/>
+      <c r="C1029" t="inlineStr"/>
+      <c r="D1029" t="inlineStr"/>
+      <c r="E1029" t="n">
+        <v>0.04341548125874949</v>
+      </c>
+      <c r="F1029" t="n">
+        <v>0.02387197253023244</v>
+      </c>
+      <c r="G1029" t="n">
+        <v>0.001036413175995689</v>
+      </c>
+      <c r="H1029" t="n">
+        <v>0.1345749075779639</v>
+      </c>
+    </row>
+    <row r="1030">
+      <c r="A1030" t="inlineStr"/>
+      <c r="B1030" t="inlineStr"/>
+      <c r="C1030" t="inlineStr"/>
+      <c r="D1030" t="inlineStr"/>
+      <c r="E1030" t="n">
+        <v>0.04296797751024897</v>
+      </c>
+      <c r="F1030" t="n">
+        <v>0.01976473371560659</v>
+      </c>
+      <c r="G1030" t="n">
+        <v>0.0008492506337882436</v>
+      </c>
+      <c r="H1030" t="n">
+        <v>0.1254654224517111</v>
+      </c>
+    </row>
+    <row r="1031">
+      <c r="A1031" t="inlineStr"/>
+      <c r="B1031" t="inlineStr"/>
+      <c r="C1031" t="inlineStr"/>
+      <c r="D1031" t="inlineStr"/>
+      <c r="E1031" t="n">
+        <v>0.04633527660820717</v>
+      </c>
+      <c r="F1031" t="n">
+        <v>0.0434696499794605</v>
+      </c>
+      <c r="G1031" t="n">
+        <v>0.00201417825586025</v>
+      </c>
+      <c r="H1031" t="n">
+        <v>0.1796098531753353</v>
+      </c>
+    </row>
+    <row r="1032">
+      <c r="A1032" t="inlineStr"/>
+      <c r="B1032" t="inlineStr"/>
+      <c r="C1032" t="inlineStr"/>
+      <c r="D1032" t="inlineStr"/>
+      <c r="E1032" t="n">
+        <v>0.04353955198745935</v>
+      </c>
+      <c r="F1032" t="n">
+        <v>0.04071296974917685</v>
+      </c>
+      <c r="G1032" t="n">
+        <v>0.001772624462958146</v>
+      </c>
+      <c r="H1032" t="n">
+        <v>0.1685050434732724</v>
+      </c>
+    </row>
+    <row r="1033">
+      <c r="A1033" t="inlineStr"/>
+      <c r="B1033" t="inlineStr"/>
+      <c r="C1033" t="inlineStr"/>
+      <c r="D1033" t="inlineStr"/>
+      <c r="E1033" t="n">
+        <v>0.01795594491750226</v>
+      </c>
+      <c r="F1033" t="n">
+        <v>0.005986034196295652</v>
+      </c>
+      <c r="G1033" t="n">
+        <v>0.0001074849003029696</v>
+      </c>
+      <c r="H1033" t="n">
+        <v>0.04788395822759581</v>
+      </c>
+    </row>
+    <row r="1034">
+      <c r="A1034" t="inlineStr"/>
+      <c r="B1034" t="inlineStr"/>
+      <c r="C1034" t="inlineStr"/>
+      <c r="D1034" t="inlineStr"/>
+      <c r="E1034" t="n">
+        <v>0.04389673943911983</v>
+      </c>
+      <c r="F1034" t="n">
+        <v>0.04144615118092706</v>
+      </c>
+      <c r="G1034" t="n">
+        <v>0.001819350899143524</v>
+      </c>
+      <c r="H1034" t="n">
+        <v>0.1706857812400938</v>
+      </c>
+    </row>
+    <row r="1035">
+      <c r="A1035" t="inlineStr"/>
+      <c r="B1035" t="inlineStr"/>
+      <c r="C1035" t="inlineStr"/>
+      <c r="D1035" t="inlineStr"/>
+      <c r="E1035" t="n">
+        <v>0.01872668960822208</v>
+      </c>
+      <c r="F1035" t="n">
+        <v>0.006688402828611146</v>
+      </c>
+      <c r="G1035" t="n">
+        <v>0.0001252516437461555</v>
+      </c>
+      <c r="H1035" t="n">
+        <v>0.05083018487366645</v>
+      </c>
+    </row>
+    <row r="1036">
+      <c r="A1036" t="inlineStr"/>
+      <c r="B1036" t="inlineStr"/>
+      <c r="C1036" t="inlineStr"/>
+      <c r="D1036" t="inlineStr"/>
+      <c r="E1036" t="n">
+        <v>0.01938630106175928</v>
+      </c>
+      <c r="F1036" t="n">
+        <v>0.006936787584287907</v>
+      </c>
+      <c r="G1036" t="n">
+        <v>0.0001344786525104793</v>
+      </c>
+      <c r="H1036" t="n">
+        <v>0.05264617729209439</v>
+      </c>
+    </row>
+    <row r="1037">
+      <c r="A1037" t="inlineStr"/>
+      <c r="B1037" t="inlineStr"/>
+      <c r="C1037" t="inlineStr"/>
+      <c r="D1037" t="inlineStr"/>
+      <c r="E1037" t="n">
+        <v>0.04652215812554145</v>
+      </c>
+      <c r="F1037" t="n">
+        <v>0.04351269242900215</v>
+      </c>
+      <c r="G1037" t="n">
+        <v>0.002024304357650088</v>
+      </c>
+      <c r="H1037" t="n">
+        <v>0.1800697011090872</v>
+      </c>
+    </row>
+    <row r="1038">
+      <c r="A1038" t="inlineStr"/>
+      <c r="B1038" t="inlineStr"/>
+      <c r="C1038" t="inlineStr"/>
+      <c r="D1038" t="inlineStr"/>
+      <c r="E1038" t="n">
+        <v>0.02907820522262047</v>
+      </c>
+      <c r="F1038" t="n">
+        <v>0.01930105276720893</v>
+      </c>
+      <c r="G1038" t="n">
+        <v>0.0005612399733775278</v>
+      </c>
+      <c r="H1038" t="n">
+        <v>0.09675851597965879</v>
+      </c>
+    </row>
+    <row r="1039">
+      <c r="A1039" t="inlineStr"/>
+      <c r="B1039" t="inlineStr"/>
+      <c r="C1039" t="inlineStr"/>
+      <c r="D1039" t="inlineStr"/>
+      <c r="E1039" t="n">
+        <v>0.04249290849606619</v>
+      </c>
+      <c r="F1039" t="n">
+        <v>0.02917119637749099</v>
+      </c>
+      <c r="G1039" t="n">
+        <v>0.001239568978389502</v>
+      </c>
+      <c r="H1039" t="n">
+        <v>0.1433282097471144</v>
+      </c>
+    </row>
+    <row r="1040">
+      <c r="A1040" t="inlineStr"/>
+      <c r="B1040" t="inlineStr"/>
+      <c r="C1040" t="inlineStr"/>
+      <c r="D1040" t="inlineStr"/>
+      <c r="E1040" t="n">
+        <v>0.02112981051874831</v>
+      </c>
+      <c r="F1040" t="n">
+        <v>0.007942326475414697</v>
+      </c>
+      <c r="G1040" t="n">
+        <v>0.0001678198535035506</v>
+      </c>
+      <c r="H1040" t="n">
+        <v>0.05814427398832601</v>
+      </c>
+    </row>
+    <row r="1041">
+      <c r="A1041" t="inlineStr"/>
+      <c r="B1041" t="inlineStr"/>
+      <c r="C1041" t="inlineStr"/>
+      <c r="D1041" t="inlineStr"/>
+      <c r="E1041" t="n">
+        <v>0.04233203001350064</v>
+      </c>
+      <c r="F1041" t="n">
+        <v>0.029350352108067</v>
+      </c>
+      <c r="G1041" t="n">
+        <v>0.001242459986345504</v>
+      </c>
+      <c r="H1041" t="n">
+        <v>0.1433647642431353</v>
+      </c>
+    </row>
+    <row r="1042">
+      <c r="A1042" t="inlineStr"/>
+      <c r="B1042" t="inlineStr"/>
+      <c r="C1042" t="inlineStr"/>
+      <c r="D1042" t="inlineStr"/>
+      <c r="E1042" t="n">
+        <v>0.04838056127172084</v>
+      </c>
+      <c r="F1042" t="n">
+        <v>0.02146922012408382</v>
+      </c>
+      <c r="G1042" t="n">
+        <v>0.001038692919669299</v>
+      </c>
+      <c r="H1042" t="n">
+        <v>0.1396995627916093</v>
+      </c>
+    </row>
+    <row r="1043">
+      <c r="A1043" t="inlineStr"/>
+      <c r="B1043" t="inlineStr"/>
+      <c r="C1043" t="inlineStr"/>
+      <c r="D1043" t="inlineStr"/>
+      <c r="E1043" t="n">
+        <v>0.04808226907182313</v>
+      </c>
+      <c r="F1043" t="n">
+        <v>0.02128058572106148</v>
+      </c>
+      <c r="G1043" t="n">
+        <v>0.001023218848646075</v>
+      </c>
+      <c r="H1043" t="n">
+        <v>0.1387257095857692</v>
+      </c>
+    </row>
+    <row r="1044">
+      <c r="A1044" t="inlineStr"/>
+      <c r="B1044" t="inlineStr"/>
+      <c r="C1044" t="inlineStr"/>
+      <c r="D1044" t="inlineStr"/>
+      <c r="E1044" t="n">
+        <v>0.04762779931006875</v>
+      </c>
+      <c r="F1044" t="n">
+        <v>0.02126491219124028</v>
+      </c>
+      <c r="G1044" t="n">
+        <v>0.001012800970190627</v>
+      </c>
+      <c r="H1044" t="n">
+        <v>0.1377854230026181</v>
+      </c>
+    </row>
+    <row r="1045">
+      <c r="A1045" t="inlineStr"/>
+      <c r="B1045" t="inlineStr"/>
+      <c r="C1045" t="inlineStr"/>
+      <c r="D1045" t="inlineStr"/>
+      <c r="E1045" t="n">
+        <v>0.04537210006973981</v>
+      </c>
+      <c r="F1045" t="n">
+        <v>0.01071251687294754</v>
+      </c>
+      <c r="G1045" t="n">
+        <v>0.0004860493875581521</v>
+      </c>
+      <c r="H1045" t="n">
+        <v>0.1121692338853747</v>
+      </c>
+    </row>
+    <row r="1046">
+      <c r="A1046" t="inlineStr"/>
+      <c r="B1046" t="inlineStr"/>
+      <c r="C1046" t="inlineStr"/>
+      <c r="D1046" t="inlineStr"/>
+      <c r="E1046" t="n">
+        <v>0.01161782186196754</v>
+      </c>
+      <c r="F1046" t="n">
+        <v>0.00262650890448856</v>
+      </c>
+      <c r="G1046" t="n">
+        <v>3.05143125712196e-05</v>
+      </c>
+      <c r="H1046" t="n">
+        <v>0.02848866153291219</v>
+      </c>
+    </row>
+    <row r="1047">
+      <c r="A1047" t="inlineStr"/>
+      <c r="B1047" t="inlineStr"/>
+      <c r="C1047" t="inlineStr"/>
+      <c r="D1047" t="inlineStr"/>
+      <c r="E1047" t="n">
+        <v>0.004762159662731135</v>
+      </c>
+      <c r="F1047" t="n">
+        <v>0.001301045432691295</v>
+      </c>
+      <c r="G1047" t="n">
+        <v>6.195786078943062e-06</v>
+      </c>
+      <c r="H1047" t="n">
+        <v>0.01212641019084486</v>
+      </c>
+    </row>
+    <row r="1048">
+      <c r="A1048" t="inlineStr"/>
+      <c r="B1048" t="inlineStr"/>
+      <c r="C1048" t="inlineStr"/>
+      <c r="D1048" t="inlineStr"/>
+      <c r="E1048" t="n">
+        <v>0.04388526315993158</v>
+      </c>
+      <c r="F1048" t="n">
+        <v>0.02480902082781051</v>
+      </c>
+      <c r="G1048" t="n">
+        <v>0.001088750407768688</v>
+      </c>
+      <c r="H1048" t="n">
+        <v>0.1373885679754842</v>
+      </c>
+    </row>
+    <row r="1049">
+      <c r="A1049" t="inlineStr"/>
+      <c r="B1049" t="inlineStr"/>
+      <c r="C1049" t="inlineStr"/>
+      <c r="D1049" t="inlineStr"/>
+      <c r="E1049" t="n">
+        <v>0.03676181174622358</v>
+      </c>
+      <c r="F1049" t="n">
+        <v>0.02340084324045733</v>
+      </c>
+      <c r="G1049" t="n">
+        <v>0.000860257393908581</v>
+      </c>
+      <c r="H1049" t="n">
+        <v>0.1203253099733618</v>
+      </c>
+    </row>
+    <row r="1050">
+      <c r="A1050" t="inlineStr"/>
+      <c r="B1050" t="inlineStr"/>
+      <c r="C1050" t="inlineStr"/>
+      <c r="D1050" t="inlineStr"/>
+      <c r="E1050" t="n">
+        <v>0.01441310683849651</v>
+      </c>
+      <c r="F1050" t="n">
+        <v>0.004676406986706411</v>
+      </c>
+      <c r="G1050" t="n">
+        <v>6.740155351969103e-05</v>
+      </c>
+      <c r="H1050" t="n">
+        <v>0.03817902765040584</v>
+      </c>
+    </row>
+    <row r="1051">
+      <c r="A1051" t="inlineStr"/>
+      <c r="B1051" t="inlineStr"/>
+      <c r="C1051" t="inlineStr"/>
+      <c r="D1051" t="inlineStr"/>
+      <c r="E1051" t="n">
+        <v>0.03591179308482043</v>
+      </c>
+      <c r="F1051" t="n">
+        <v>0.003465955118386371</v>
+      </c>
+      <c r="G1051" t="n">
+        <v>0.0001244686630527657</v>
+      </c>
+      <c r="H1051" t="n">
+        <v>0.07875549640641361</v>
+      </c>
+    </row>
+    <row r="1052">
+      <c r="A1052" t="inlineStr"/>
+      <c r="B1052" t="inlineStr"/>
+      <c r="C1052" t="inlineStr"/>
+      <c r="D1052" t="inlineStr"/>
+      <c r="E1052" t="n">
+        <v>0.01236538065563161</v>
+      </c>
+      <c r="F1052" t="n">
+        <v>0.00444452631849728</v>
+      </c>
+      <c r="G1052" t="n">
+        <v>5.495825976219184e-05</v>
+      </c>
+      <c r="H1052" t="n">
+        <v>0.03361981394825778</v>
+      </c>
+    </row>
+    <row r="1053">
+      <c r="A1053" t="inlineStr"/>
+      <c r="B1053" t="inlineStr"/>
+      <c r="C1053" t="inlineStr"/>
+      <c r="D1053" t="inlineStr"/>
+      <c r="E1053" t="n">
+        <v>0.01291766485349233</v>
+      </c>
+      <c r="F1053" t="n">
+        <v>0.006164053112208701</v>
+      </c>
+      <c r="G1053" t="n">
+        <v>7.962517224263838e-05</v>
+      </c>
+      <c r="H1053" t="n">
+        <v>0.03816343593140207</v>
+      </c>
+    </row>
+    <row r="1054">
+      <c r="A1054" t="inlineStr"/>
+      <c r="B1054" t="inlineStr"/>
+      <c r="C1054" t="inlineStr"/>
+      <c r="D1054" t="inlineStr"/>
+      <c r="E1054" t="n">
+        <v>0.01300535609019075</v>
+      </c>
+      <c r="F1054" t="n">
+        <v>0.006645683353948711</v>
+      </c>
+      <c r="G1054" t="n">
+        <v>8.642947848075615e-05</v>
+      </c>
+      <c r="H1054" t="n">
+        <v>0.03930207888827892</v>
+      </c>
+    </row>
+    <row r="1055">
+      <c r="A1055" t="inlineStr"/>
+      <c r="B1055" t="inlineStr"/>
+      <c r="C1055" t="inlineStr"/>
+      <c r="D1055" t="inlineStr"/>
+      <c r="E1055" t="n">
+        <v>0.01273741214656446</v>
+      </c>
+      <c r="F1055" t="n">
+        <v>0.00711804620857086</v>
+      </c>
+      <c r="G1055" t="n">
+        <v>9.06654882368576e-05</v>
+      </c>
+      <c r="H1055" t="n">
+        <v>0.03971091671027065</v>
+      </c>
+    </row>
+    <row r="1056">
+      <c r="A1056" t="inlineStr"/>
+      <c r="B1056" t="inlineStr"/>
+      <c r="C1056" t="inlineStr"/>
+      <c r="D1056" t="inlineStr"/>
+      <c r="E1056" t="n">
+        <v>0.01251820753096603</v>
+      </c>
+      <c r="F1056" t="n">
+        <v>0.006289772862438425</v>
+      </c>
+      <c r="G1056" t="n">
+        <v>7.873668201464249e-05</v>
+      </c>
+      <c r="H1056" t="n">
+        <v>0.03761596078680892</v>
+      </c>
+    </row>
+    <row r="1057">
+      <c r="A1057" t="inlineStr"/>
+      <c r="B1057" t="inlineStr"/>
+      <c r="C1057" t="inlineStr"/>
+      <c r="D1057" t="inlineStr"/>
+      <c r="E1057" t="n">
+        <v>0.008068740550494889</v>
+      </c>
+      <c r="F1057" t="n">
+        <v>0.005353298307679927</v>
+      </c>
+      <c r="G1057" t="n">
+        <v>4.319437513407269e-05</v>
+      </c>
+      <c r="H1057" t="n">
+        <v>0.02684407771634963</v>
+      </c>
+    </row>
+    <row r="1058">
+      <c r="A1058" t="inlineStr"/>
+      <c r="B1058" t="inlineStr"/>
+      <c r="C1058" t="inlineStr"/>
+      <c r="D1058" t="inlineStr"/>
+      <c r="E1058" t="n">
+        <v>0.04891088317779508</v>
+      </c>
+      <c r="F1058" t="n">
+        <v>0.02361461561777895</v>
+      </c>
+      <c r="G1058" t="n">
+        <v>0.001155011705769721</v>
+      </c>
+      <c r="H1058" t="n">
+        <v>0.1450509975911481</v>
+      </c>
+    </row>
+    <row r="1059">
+      <c r="A1059" t="inlineStr"/>
+      <c r="B1059" t="inlineStr"/>
+      <c r="C1059" t="inlineStr"/>
+      <c r="D1059" t="inlineStr"/>
+      <c r="E1059" t="n">
+        <v>0.04453437152730865</v>
+      </c>
+      <c r="F1059" t="n">
+        <v>0.02102746589755203</v>
+      </c>
+      <c r="G1059" t="n">
+        <v>0.0009364449785593946</v>
+      </c>
+      <c r="H1059" t="n">
+        <v>0.1311236748497213</v>
+      </c>
+    </row>
+    <row r="1060">
+      <c r="A1060" t="inlineStr"/>
+      <c r="B1060" t="inlineStr"/>
+      <c r="C1060" t="inlineStr"/>
+      <c r="D1060" t="inlineStr"/>
+      <c r="E1060" t="n">
+        <v>0.005687608609195615</v>
+      </c>
+      <c r="F1060" t="n">
+        <v>0.0007896196912462596</v>
+      </c>
+      <c r="G1060" t="n">
+        <v>4.49104775392261e-06</v>
+      </c>
+      <c r="H1060" t="n">
+        <v>0.01295445660088375</v>
+      </c>
+    </row>
+    <row r="1061">
+      <c r="A1061" t="inlineStr"/>
+      <c r="B1061" t="inlineStr"/>
+      <c r="C1061" t="inlineStr"/>
+      <c r="D1061" t="inlineStr"/>
+      <c r="E1061" t="n">
+        <v>0.04222237790781255</v>
+      </c>
+      <c r="F1061" t="n">
+        <v>0.02106885505718334</v>
+      </c>
+      <c r="G1061" t="n">
+        <v>0.0008895771603093228</v>
+      </c>
+      <c r="H1061" t="n">
+        <v>0.1265824659299918</v>
+      </c>
+    </row>
+    <row r="1062">
+      <c r="A1062" t="inlineStr"/>
+      <c r="B1062" t="inlineStr"/>
+      <c r="C1062" t="inlineStr"/>
+      <c r="D1062" t="inlineStr"/>
+      <c r="E1062" t="n">
+        <v>0.04193841896312714</v>
+      </c>
+      <c r="F1062" t="n">
+        <v>0.02082190448070591</v>
+      </c>
+      <c r="G1062" t="n">
+        <v>0.0008732377537220585</v>
+      </c>
+      <c r="H1062" t="n">
+        <v>0.1255206468876661</v>
+      </c>
+    </row>
+    <row r="1063">
+      <c r="A1063" t="inlineStr"/>
+      <c r="B1063" t="inlineStr"/>
+      <c r="C1063" t="inlineStr"/>
+      <c r="D1063" t="inlineStr"/>
+      <c r="E1063" t="n">
+        <v>0.04203295812094297</v>
+      </c>
+      <c r="F1063" t="n">
+        <v>0.02084515724921242</v>
+      </c>
+      <c r="G1063" t="n">
+        <v>0.0008761836216806165</v>
+      </c>
+      <c r="H1063" t="n">
+        <v>0.1257562307403108</v>
+      </c>
+    </row>
+    <row r="1064">
+      <c r="A1064" t="inlineStr"/>
+      <c r="B1064" t="inlineStr"/>
+      <c r="C1064" t="inlineStr"/>
+      <c r="D1064" t="inlineStr"/>
+      <c r="E1064" t="n">
+        <v>0.002927221815333948</v>
+      </c>
+      <c r="F1064" t="n">
+        <v>0.001157583139282817</v>
+      </c>
+      <c r="G1064" t="n">
+        <v>3.388502618371418e-06</v>
+      </c>
+      <c r="H1064" t="n">
+        <v>0.00816960990923353</v>
+      </c>
+    </row>
+    <row r="1065">
+      <c r="A1065" t="inlineStr"/>
+      <c r="B1065" t="inlineStr"/>
+      <c r="C1065" t="inlineStr"/>
+      <c r="D1065" t="inlineStr"/>
+      <c r="E1065" t="n">
+        <v>0.02840234542934488</v>
+      </c>
+      <c r="F1065" t="n">
+        <v>0.01582325926784241</v>
+      </c>
+      <c r="G1065" t="n">
+        <v>0.0004494176755433429</v>
+      </c>
+      <c r="H1065" t="n">
+        <v>0.08845120939437458</v>
+      </c>
+    </row>
+    <row r="1066">
+      <c r="A1066" t="inlineStr"/>
+      <c r="B1066" t="inlineStr"/>
+      <c r="C1066" t="inlineStr"/>
+      <c r="D1066" t="inlineStr"/>
+      <c r="E1066" t="n">
+        <v>0.003969490028641469</v>
+      </c>
+      <c r="F1066" t="n">
+        <v>0.001822860792249696</v>
+      </c>
+      <c r="G1066" t="n">
+        <v>7.235827738436656e-06</v>
+      </c>
+      <c r="H1066" t="n">
+        <v>0.01158470164178233</v>
+      </c>
+    </row>
+    <row r="1067">
+      <c r="A1067" t="inlineStr"/>
+      <c r="B1067" t="inlineStr"/>
+      <c r="C1067" t="inlineStr"/>
+      <c r="D1067" t="inlineStr"/>
+      <c r="E1067" t="n">
+        <v>0.004195998571739635</v>
+      </c>
+      <c r="F1067" t="n">
+        <v>0.00214462149222248</v>
+      </c>
+      <c r="G1067" t="n">
+        <v>8.998828718287654e-06</v>
+      </c>
+      <c r="H1067" t="n">
+        <v>0.01268124012792423</v>
+      </c>
+    </row>
+    <row r="1068">
+      <c r="A1068" t="inlineStr"/>
+      <c r="B1068" t="inlineStr"/>
+      <c r="C1068" t="inlineStr"/>
+      <c r="D1068" t="inlineStr"/>
+      <c r="E1068" t="n">
+        <v>0.005430882707133892</v>
+      </c>
+      <c r="F1068" t="n">
+        <v>0.0008017016372578357</v>
+      </c>
+      <c r="G1068" t="n">
+        <v>4.353947558064508e-06</v>
+      </c>
+      <c r="H1068" t="n">
+        <v>0.01246516868878346</v>
+      </c>
+    </row>
+    <row r="1069">
+      <c r="A1069" t="inlineStr"/>
+      <c r="B1069" t="inlineStr"/>
+      <c r="C1069" t="inlineStr"/>
+      <c r="D1069" t="inlineStr"/>
+      <c r="E1069" t="n">
+        <v>0.002418609832459413</v>
+      </c>
+      <c r="F1069" t="n">
+        <v>0.001292705175554347</v>
+      </c>
+      <c r="G1069" t="n">
+        <v>3.126549448066917e-06</v>
+      </c>
+      <c r="H1069" t="n">
+        <v>0.007422630016027522</v>
+      </c>
+    </row>
+    <row r="1070">
+      <c r="A1070" t="inlineStr"/>
+      <c r="B1070" t="inlineStr"/>
+      <c r="C1070" t="inlineStr"/>
+      <c r="D1070" t="inlineStr"/>
+      <c r="E1070" t="n">
+        <v>0.001771643841401179</v>
+      </c>
+      <c r="F1070" t="n">
+        <v>0.001678399428695854</v>
+      </c>
+      <c r="G1070" t="n">
+        <v>2.973526011260268e-06</v>
+      </c>
+      <c r="H1070" t="n">
+        <v>0.006900086540194067</v>
+      </c>
+    </row>
+    <row r="1071">
+      <c r="A1071" t="inlineStr"/>
+      <c r="B1071" t="inlineStr"/>
+      <c r="C1071" t="inlineStr"/>
+      <c r="D1071" t="inlineStr"/>
+      <c r="E1071" t="n">
+        <v>0.02842557970149267</v>
+      </c>
+      <c r="F1071" t="n">
+        <v>0.007136331281963842</v>
+      </c>
+      <c r="G1071" t="n">
+        <v>0.0002028543536317186</v>
+      </c>
+      <c r="H1071" t="n">
+        <v>0.07112382196691303</v>
+      </c>
+    </row>
+    <row r="1072">
+      <c r="A1072" t="inlineStr"/>
+      <c r="B1072" t="inlineStr"/>
+      <c r="C1072" t="inlineStr"/>
+      <c r="D1072" t="inlineStr"/>
+      <c r="E1072" t="n">
+        <v>0.04011225070180876</v>
+      </c>
+      <c r="F1072" t="n">
+        <v>0.0101870452812488</v>
+      </c>
+      <c r="G1072" t="n">
+        <v>0.0004086253142321299</v>
+      </c>
+      <c r="H1072" t="n">
+        <v>0.1005985919661151</v>
+      </c>
+    </row>
+    <row r="1073">
+      <c r="A1073" t="inlineStr"/>
+      <c r="B1073" t="inlineStr"/>
+      <c r="C1073" t="inlineStr"/>
+      <c r="D1073" t="inlineStr"/>
+      <c r="E1073" t="n">
+        <v>0.03225666788040721</v>
+      </c>
+      <c r="F1073" t="n">
+        <v>0.006648940847278924</v>
+      </c>
+      <c r="G1073" t="n">
+        <v>0.0002144726766671496</v>
+      </c>
+      <c r="H1073" t="n">
+        <v>0.07781121745537227</v>
+      </c>
+    </row>
+    <row r="1074">
+      <c r="A1074" t="inlineStr"/>
+      <c r="B1074" t="inlineStr"/>
+      <c r="C1074" t="inlineStr"/>
+      <c r="D1074" t="inlineStr"/>
+      <c r="E1074" t="n">
+        <v>0.01916613321271051</v>
+      </c>
+      <c r="F1074" t="n">
+        <v>0.007081256951073887</v>
+      </c>
+      <c r="G1074" t="n">
+        <v>0.0001357203140377144</v>
+      </c>
+      <c r="H1074" t="n">
+        <v>0.0524947803275688</v>
+      </c>
+    </row>
+    <row r="1075">
+      <c r="A1075" t="inlineStr"/>
+      <c r="B1075" t="inlineStr"/>
+      <c r="C1075" t="inlineStr"/>
+      <c r="D1075" t="inlineStr"/>
+      <c r="E1075" t="n">
+        <v>0.001771643841401179</v>
+      </c>
+      <c r="F1075" t="n">
+        <v>0.001585155015990529</v>
+      </c>
+      <c r="G1075" t="n">
+        <v>2.808330121745809e-06</v>
+      </c>
+      <c r="H1075" t="n">
+        <v>0.006713597714783416</v>
+      </c>
+    </row>
+    <row r="1076">
+      <c r="A1076" t="inlineStr"/>
+      <c r="B1076" t="inlineStr"/>
+      <c r="C1076" t="inlineStr"/>
+      <c r="D1076" t="inlineStr"/>
+      <c r="E1076" t="n">
+        <v>0.001771643841401179</v>
+      </c>
+      <c r="F1076" t="n">
+        <v>0.001585155015990529</v>
+      </c>
+      <c r="G1076" t="n">
+        <v>2.808330121745809e-06</v>
+      </c>
+      <c r="H1076" t="n">
+        <v>0.006713597714783416</v>
+      </c>
+    </row>
+    <row r="1077">
+      <c r="A1077" t="inlineStr"/>
+      <c r="B1077" t="inlineStr"/>
+      <c r="C1077" t="inlineStr"/>
+      <c r="D1077" t="inlineStr"/>
+      <c r="E1077" t="n">
+        <v>0.02547605074399184</v>
+      </c>
+      <c r="F1077" t="n">
+        <v>0.01039095483098141</v>
+      </c>
+      <c r="G1077" t="n">
+        <v>0.0002647204925526096</v>
+      </c>
+      <c r="H1077" t="n">
+        <v>0.07173401114994651</v>
+      </c>
+    </row>
+    <row r="1078">
+      <c r="A1078" t="inlineStr"/>
+      <c r="B1078" t="inlineStr"/>
+      <c r="C1078" t="inlineStr"/>
+      <c r="D1078" t="inlineStr"/>
+      <c r="E1078" t="n">
+        <v>0.001771643841401179</v>
+      </c>
+      <c r="F1078" t="n">
+        <v>0.001585155015990529</v>
+      </c>
+      <c r="G1078" t="n">
+        <v>2.808330121745809e-06</v>
+      </c>
+      <c r="H1078" t="n">
+        <v>0.006713597714783416</v>
+      </c>
+    </row>
+    <row r="1079">
+      <c r="A1079" t="inlineStr"/>
+      <c r="B1079" t="inlineStr"/>
+      <c r="C1079" t="inlineStr"/>
+      <c r="D1079" t="inlineStr"/>
+      <c r="E1079" t="n">
+        <v>0.01016891742690495</v>
+      </c>
+      <c r="F1079" t="n">
+        <v>0.0006623879081534567</v>
+      </c>
+      <c r="G1079" t="n">
+        <v>6.735767942592803e-06</v>
+      </c>
+      <c r="H1079" t="n">
+        <v>0.02166261067011682</v>
+      </c>
+    </row>
+    <row r="1080">
+      <c r="A1080" t="inlineStr"/>
+      <c r="B1080" t="inlineStr"/>
+      <c r="C1080" t="inlineStr"/>
+      <c r="D1080" t="inlineStr"/>
+      <c r="E1080" t="n">
+        <v>0.01025688539758578</v>
+      </c>
+      <c r="F1080" t="n">
+        <v>0.001771643841401179</v>
+      </c>
+      <c r="G1080" t="n">
+        <v>1.817154784659053e-05</v>
+      </c>
+      <c r="H1080" t="n">
+        <v>0.02405705847797391</v>
+      </c>
+    </row>
+    <row r="1081">
+      <c r="A1081" t="inlineStr"/>
+      <c r="B1081" t="inlineStr"/>
+      <c r="C1081" t="inlineStr"/>
+      <c r="D1081" t="inlineStr"/>
+      <c r="E1081" t="n">
+        <v>0.01016364098488045</v>
+      </c>
+      <c r="F1081" t="n">
+        <v>0.001771643841401179</v>
+      </c>
+      <c r="G1081" t="n">
+        <v>1.800635195707607e-05</v>
+      </c>
+      <c r="H1081" t="n">
+        <v>0.02387056965256326</v>
+      </c>
+    </row>
+    <row r="1082">
+      <c r="A1082" t="inlineStr"/>
+      <c r="B1082" t="inlineStr"/>
+      <c r="C1082" t="inlineStr"/>
+      <c r="D1082" t="inlineStr"/>
+      <c r="E1082" t="n">
+        <v>0.001771643841401179</v>
+      </c>
+      <c r="F1082" t="n">
+        <v>0.001585155015990529</v>
+      </c>
+      <c r="G1082" t="n">
+        <v>2.808330121745809e-06</v>
+      </c>
+      <c r="H1082" t="n">
+        <v>0.006713597714783416</v>
+      </c>
+    </row>
+    <row r="1083">
+      <c r="A1083" t="inlineStr"/>
+      <c r="B1083" t="inlineStr"/>
+      <c r="C1083" t="inlineStr"/>
+      <c r="D1083" t="inlineStr"/>
+      <c r="E1083" t="n">
+        <v>0.001771643841401179</v>
+      </c>
+      <c r="F1083" t="n">
+        <v>0.001585155015990529</v>
+      </c>
+      <c r="G1083" t="n">
+        <v>2.808330121745809e-06</v>
+      </c>
+      <c r="H1083" t="n">
+        <v>0.006713597714783416</v>
+      </c>
+    </row>
+    <row r="1084">
+      <c r="A1084" t="inlineStr"/>
+      <c r="B1084" t="inlineStr"/>
+      <c r="C1084" t="inlineStr"/>
+      <c r="D1084" t="inlineStr"/>
+      <c r="E1084" t="n">
+        <v>0.001771643841401179</v>
+      </c>
+      <c r="F1084" t="n">
+        <v>0.001585155015990529</v>
+      </c>
+      <c r="G1084" t="n">
+        <v>2.808330121745809e-06</v>
+      </c>
+      <c r="H1084" t="n">
+        <v>0.006713597714783416</v>
+      </c>
+    </row>
+    <row r="1085">
+      <c r="A1085" t="inlineStr"/>
+      <c r="B1085" t="inlineStr"/>
+      <c r="C1085" t="inlineStr"/>
+      <c r="D1085" t="inlineStr"/>
+      <c r="E1085" t="n">
+        <v>0.01025688539758578</v>
+      </c>
+      <c r="F1085" t="n">
+        <v>0.001771643841401179</v>
+      </c>
+      <c r="G1085" t="n">
+        <v>1.817154784659053e-05</v>
+      </c>
+      <c r="H1085" t="n">
+        <v>0.02405705847797391</v>
+      </c>
+    </row>
+    <row r="1086">
+      <c r="A1086" t="inlineStr"/>
+      <c r="B1086" t="inlineStr"/>
+      <c r="C1086" t="inlineStr"/>
+      <c r="D1086" t="inlineStr"/>
+      <c r="E1086" t="n">
+        <v>0.01025688539758578</v>
+      </c>
+      <c r="F1086" t="n">
+        <v>0.001771643841401179</v>
+      </c>
+      <c r="G1086" t="n">
+        <v>1.817154784659053e-05</v>
+      </c>
+      <c r="H1086" t="n">
+        <v>0.02405705847797391</v>
+      </c>
+    </row>
+    <row r="1087">
+      <c r="A1087" t="inlineStr"/>
+      <c r="B1087" t="inlineStr"/>
+      <c r="C1087" t="inlineStr"/>
+      <c r="D1087" t="inlineStr"/>
+      <c r="E1087" t="n">
+        <v>0.01016798478358634</v>
+      </c>
+      <c r="F1087" t="n">
+        <v>0.001732286969184383</v>
+      </c>
+      <c r="G1087" t="n">
+        <v>1.761386754347171e-05</v>
+      </c>
+      <c r="H1087" t="n">
+        <v>0.02380054350554145</v>
+      </c>
+    </row>
+    <row r="1088">
+      <c r="A1088" t="inlineStr"/>
+      <c r="B1088" t="inlineStr"/>
+      <c r="C1088" t="inlineStr"/>
+      <c r="D1088" t="inlineStr"/>
+      <c r="E1088" t="n">
+        <v>0.01016364098488045</v>
+      </c>
+      <c r="F1088" t="n">
+        <v>0.001771643841401179</v>
+      </c>
+      <c r="G1088" t="n">
+        <v>1.800635195707607e-05</v>
+      </c>
+      <c r="H1088" t="n">
+        <v>0.02387056965256326</v>
+      </c>
+    </row>
+    <row r="1089">
+      <c r="A1089" t="inlineStr"/>
+      <c r="B1089" t="inlineStr"/>
+      <c r="C1089" t="inlineStr"/>
+      <c r="D1089" t="inlineStr"/>
+      <c r="E1089" t="n">
+        <v>0.01016364098488045</v>
+      </c>
+      <c r="F1089" t="n">
+        <v>0.001771643841401179</v>
+      </c>
+      <c r="G1089" t="n">
+        <v>1.800635195707607e-05</v>
+      </c>
+      <c r="H1089" t="n">
+        <v>0.02387056965256326</v>
+      </c>
+    </row>
+    <row r="1090">
+      <c r="A1090" t="inlineStr"/>
+      <c r="B1090" t="inlineStr"/>
+      <c r="C1090" t="inlineStr"/>
+      <c r="D1090" t="inlineStr"/>
+      <c r="E1090" t="n">
+        <v>0.01016364098488045</v>
+      </c>
+      <c r="F1090" t="n">
+        <v>0.001771643841401179</v>
+      </c>
+      <c r="G1090" t="n">
+        <v>1.800635195707607e-05</v>
+      </c>
+      <c r="H1090" t="n">
+        <v>0.02387056965256326</v>
+      </c>
+    </row>
+    <row r="1091">
+      <c r="A1091" t="inlineStr"/>
+      <c r="B1091" t="inlineStr"/>
+      <c r="C1091" t="inlineStr"/>
+      <c r="D1091" t="inlineStr"/>
+      <c r="E1091" t="n">
+        <v>0.01016364098488045</v>
+      </c>
+      <c r="F1091" t="n">
+        <v>0.0007459553016426018</v>
+      </c>
+      <c r="G1091" t="n">
+        <v>7.581621876663608e-06</v>
+      </c>
+      <c r="H1091" t="n">
+        <v>0.0218191925730461</v>
+      </c>
+    </row>
+    <row r="1092">
+      <c r="A1092" t="inlineStr"/>
+      <c r="B1092" t="inlineStr"/>
+      <c r="C1092" t="inlineStr"/>
+      <c r="D1092" t="inlineStr"/>
+      <c r="E1092" t="n">
+        <v>0.0102592806760402</v>
+      </c>
+      <c r="F1092" t="n">
+        <v>0.0006596173225741058</v>
+      </c>
+      <c r="G1092" t="n">
+        <v>6.767199251065902e-06</v>
+      </c>
+      <c r="H1092" t="n">
+        <v>0.02183779599722862</v>
+      </c>
+    </row>
+    <row r="1093">
+      <c r="A1093" t="inlineStr"/>
+      <c r="B1093" t="inlineStr"/>
+      <c r="C1093" t="inlineStr"/>
+      <c r="D1093" t="inlineStr"/>
+      <c r="E1093" t="n">
+        <v>0.001771643841401179</v>
+      </c>
+      <c r="F1093" t="n">
+        <v>0.001585155015990529</v>
+      </c>
+      <c r="G1093" t="n">
+        <v>2.808330121745809e-06</v>
+      </c>
+      <c r="H1093" t="n">
+        <v>0.006713597714783416</v>
+      </c>
+    </row>
+    <row r="1094">
+      <c r="A1094" t="inlineStr"/>
+      <c r="B1094" t="inlineStr"/>
+      <c r="C1094" t="inlineStr"/>
+      <c r="D1094" t="inlineStr"/>
+      <c r="E1094" t="n">
+        <v>0.001678399428695854</v>
+      </c>
+      <c r="F1094" t="n">
+        <v>0.001025688539758578</v>
+      </c>
+      <c r="G1094" t="n">
+        <v>1.721515059150681e-06</v>
+      </c>
+      <c r="H1094" t="n">
+        <v>0.005408175936908863</v>
+      </c>
+    </row>
+    <row r="1095">
+      <c r="A1095" t="inlineStr"/>
+      <c r="B1095" t="inlineStr"/>
+      <c r="C1095" t="inlineStr"/>
+      <c r="D1095" t="inlineStr"/>
+      <c r="E1095" t="n">
+        <v>0.001771643841401179</v>
+      </c>
+      <c r="F1095" t="n">
+        <v>0.001025688539758578</v>
+      </c>
+      <c r="G1095" t="n">
+        <v>1.817154784659053e-06</v>
+      </c>
+      <c r="H1095" t="n">
+        <v>0.005594664762319514</v>
+      </c>
+    </row>
+    <row r="1096">
+      <c r="A1096" t="inlineStr"/>
+      <c r="B1096" t="inlineStr"/>
+      <c r="C1096" t="inlineStr"/>
+      <c r="D1096" t="inlineStr"/>
+      <c r="E1096" t="n">
+        <v>0.001771643841401179</v>
+      </c>
+      <c r="F1096" t="n">
+        <v>0.001585155015990529</v>
+      </c>
+      <c r="G1096" t="n">
+        <v>2.808330121745809e-06</v>
+      </c>
+      <c r="H1096" t="n">
+        <v>0.006713597714783416</v>
+      </c>
+    </row>
+    <row r="1097">
+      <c r="A1097" t="inlineStr"/>
+      <c r="B1097" t="inlineStr"/>
+      <c r="C1097" t="inlineStr"/>
+      <c r="D1097" t="inlineStr"/>
+      <c r="E1097" t="n">
+        <v>0.001516476435411341</v>
+      </c>
+      <c r="F1097" t="n">
+        <v>0.001186807474987516</v>
+      </c>
+      <c r="G1097" t="n">
+        <v>1.799765569188604e-06</v>
+      </c>
+      <c r="H1097" t="n">
+        <v>0.005406567820797716</v>
+      </c>
+    </row>
+    <row r="1098">
+      <c r="A1098" t="inlineStr"/>
+      <c r="B1098" t="inlineStr"/>
+      <c r="C1098" t="inlineStr"/>
+      <c r="D1098" t="inlineStr"/>
+      <c r="E1098" t="n">
+        <v>0.02761998075695751</v>
+      </c>
+      <c r="F1098" t="n">
+        <v>0.007078426296791092</v>
+      </c>
+      <c r="G1098" t="n">
+        <v>0.0001955059981069119</v>
+      </c>
+      <c r="H1098" t="n">
+        <v>0.06939681410749719</v>
+      </c>
+    </row>
+    <row r="1099">
+      <c r="A1099" t="inlineStr"/>
+      <c r="B1099" t="inlineStr"/>
+      <c r="C1099" t="inlineStr"/>
+      <c r="D1099" t="inlineStr"/>
+      <c r="E1099" t="n">
+        <v>0.02648010423523362</v>
+      </c>
+      <c r="F1099" t="n">
+        <v>0.00736494698715943</v>
+      </c>
+      <c r="G1099" t="n">
+        <v>0.0001950245639069515</v>
+      </c>
+      <c r="H1099" t="n">
+        <v>0.0676901024447861</v>
+      </c>
+    </row>
+    <row r="1100">
+      <c r="A1100" t="inlineStr"/>
+      <c r="B1100" t="inlineStr"/>
+      <c r="C1100" t="inlineStr"/>
+      <c r="D1100" t="inlineStr"/>
+      <c r="E1100" t="n">
+        <v>0.03294830649046902</v>
+      </c>
+      <c r="F1100" t="n">
+        <v>0.009160643208882623</v>
+      </c>
+      <c r="G1100" t="n">
+        <v>0.0003018276800960983</v>
+      </c>
+      <c r="H1100" t="n">
+        <v>0.08421789939870329</v>
+      </c>
+    </row>
+    <row r="1101">
+      <c r="A1101" t="inlineStr"/>
+      <c r="B1101" t="inlineStr"/>
+      <c r="C1101" t="inlineStr"/>
+      <c r="D1101" t="inlineStr"/>
+      <c r="E1101" t="n">
+        <v>0.02708337293451162</v>
+      </c>
+      <c r="F1101" t="n">
+        <v>0.01174702817581626</v>
+      </c>
+      <c r="G1101" t="n">
+        <v>0.0003181491449578474</v>
+      </c>
+      <c r="H1101" t="n">
+        <v>0.07766080222065576</v>
+      </c>
+    </row>
+    <row r="1102">
+      <c r="A1102" t="inlineStr"/>
+      <c r="B1102" t="inlineStr"/>
+      <c r="C1102" t="inlineStr"/>
+      <c r="D1102" t="inlineStr"/>
+      <c r="E1102" t="n">
+        <v>0.001807015104012708</v>
+      </c>
+      <c r="F1102" t="n">
+        <v>0.0006396513925823114</v>
+      </c>
+      <c r="G1102" t="n">
+        <v>1.155859727698999e-06</v>
+      </c>
+      <c r="H1102" t="n">
+        <v>0.004893332993190039</v>
+      </c>
+    </row>
+    <row r="1103">
+      <c r="A1103" t="inlineStr"/>
+      <c r="B1103" t="inlineStr"/>
+      <c r="C1103" t="inlineStr"/>
+      <c r="D1103" t="inlineStr"/>
+      <c r="E1103" t="n">
+        <v>0.02125408897579458</v>
+      </c>
+      <c r="F1103" t="n">
+        <v>0.002701694112796828</v>
+      </c>
+      <c r="G1103" t="n">
+        <v>5.742204705876419e-05</v>
+      </c>
+      <c r="H1103" t="n">
+        <v>0.04791156617718283</v>
+      </c>
+    </row>
+    <row r="1104">
+      <c r="A1104" t="inlineStr"/>
+      <c r="B1104" t="inlineStr"/>
+      <c r="C1104" t="inlineStr"/>
+      <c r="D1104" t="inlineStr"/>
+      <c r="E1104" t="n">
+        <v>0.03945182825408147</v>
+      </c>
+      <c r="F1104" t="n">
+        <v>0.01081865965026743</v>
+      </c>
+      <c r="G1104" t="n">
+        <v>0.0004268159024617118</v>
+      </c>
+      <c r="H1104" t="n">
+        <v>0.1005409758086978</v>
+      </c>
+    </row>
+    <row r="1105">
+      <c r="A1105" t="inlineStr"/>
+      <c r="B1105" t="inlineStr"/>
+      <c r="C1105" t="inlineStr"/>
+      <c r="D1105" t="inlineStr"/>
+      <c r="E1105" t="n">
+        <v>0.001771643841401179</v>
+      </c>
+      <c r="F1105" t="n">
+        <v>0.001585155015990529</v>
+      </c>
+      <c r="G1105" t="n">
+        <v>2.808330121745809e-06</v>
+      </c>
+      <c r="H1105" t="n">
+        <v>0.006713597714783416</v>
+      </c>
+    </row>
+    <row r="1106">
+      <c r="A1106" t="inlineStr"/>
+      <c r="B1106" t="inlineStr"/>
+      <c r="C1106" t="inlineStr"/>
+      <c r="D1106" t="inlineStr"/>
+      <c r="E1106" t="n">
+        <v>0.001771643841401179</v>
+      </c>
+      <c r="F1106" t="n">
+        <v>0.001585155015990529</v>
+      </c>
+      <c r="G1106" t="n">
+        <v>2.808330121745809e-06</v>
+      </c>
+      <c r="H1106" t="n">
+        <v>0.006713597714783416</v>
+      </c>
+    </row>
+    <row r="1107">
+      <c r="A1107" t="inlineStr"/>
+      <c r="B1107" t="inlineStr"/>
+      <c r="C1107" t="inlineStr"/>
+      <c r="D1107" t="inlineStr"/>
+      <c r="E1107" t="n">
+        <v>0.001771643841401179</v>
+      </c>
+      <c r="F1107" t="n">
+        <v>0.001585155015990529</v>
+      </c>
+      <c r="G1107" t="n">
+        <v>2.808330121745809e-06</v>
+      </c>
+      <c r="H1107" t="n">
+        <v>0.006713597714783416</v>
+      </c>
+    </row>
+    <row r="1108">
+      <c r="A1108" t="inlineStr"/>
+      <c r="B1108" t="inlineStr"/>
+      <c r="C1108" t="inlineStr"/>
+      <c r="D1108" t="inlineStr"/>
+      <c r="E1108" t="n">
+        <v>0.001771643841401179</v>
+      </c>
+      <c r="F1108" t="n">
+        <v>0.001585155015990529</v>
+      </c>
+      <c r="G1108" t="n">
+        <v>2.808330121745809e-06</v>
+      </c>
+      <c r="H1108" t="n">
+        <v>0.006713597714783416</v>
+      </c>
+    </row>
+    <row r="1109">
+      <c r="A1109" t="inlineStr"/>
+      <c r="B1109" t="inlineStr"/>
+      <c r="C1109" t="inlineStr"/>
+      <c r="D1109" t="inlineStr"/>
+      <c r="E1109" t="n">
+        <v>0.001771643841401179</v>
+      </c>
+      <c r="F1109" t="n">
+        <v>0.001585155015990529</v>
+      </c>
+      <c r="G1109" t="n">
+        <v>2.808330121745809e-06</v>
+      </c>
+      <c r="H1109" t="n">
+        <v>0.006713597714783416</v>
+      </c>
+    </row>
+    <row r="1110">
+      <c r="A1110" t="inlineStr"/>
+      <c r="B1110" t="inlineStr"/>
+      <c r="C1110" t="inlineStr"/>
+      <c r="D1110" t="inlineStr"/>
+      <c r="E1110" t="n">
+        <v>0.001771643841401179</v>
+      </c>
+      <c r="F1110" t="n">
+        <v>0.001585155015990529</v>
+      </c>
+      <c r="G1110" t="n">
+        <v>2.808330121745809e-06</v>
+      </c>
+      <c r="H1110" t="n">
+        <v>0.006713597714783416</v>
+      </c>
+    </row>
+    <row r="1111">
+      <c r="A1111" t="inlineStr"/>
+      <c r="B1111" t="inlineStr"/>
+      <c r="C1111" t="inlineStr"/>
+      <c r="D1111" t="inlineStr"/>
+      <c r="E1111" t="n">
+        <v>0.001771643841401179</v>
+      </c>
+      <c r="F1111" t="n">
+        <v>0.001585155015990529</v>
+      </c>
+      <c r="G1111" t="n">
+        <v>2.808330121745809e-06</v>
+      </c>
+      <c r="H1111" t="n">
+        <v>0.006713597714783416</v>
+      </c>
+    </row>
+    <row r="1112">
+      <c r="A1112" t="inlineStr"/>
+      <c r="B1112" t="inlineStr"/>
+      <c r="C1112" t="inlineStr"/>
+      <c r="D1112" t="inlineStr"/>
+      <c r="E1112" t="n">
+        <v>0.001771643841401179</v>
+      </c>
+      <c r="F1112" t="n">
+        <v>0.001585155015990529</v>
+      </c>
+      <c r="G1112" t="n">
+        <v>2.808330121745809e-06</v>
+      </c>
+      <c r="H1112" t="n">
+        <v>0.006713597714783416</v>
+      </c>
+    </row>
+    <row r="1113">
+      <c r="A1113" t="inlineStr"/>
+      <c r="B1113" t="inlineStr"/>
+      <c r="C1113" t="inlineStr"/>
+      <c r="D1113" t="inlineStr"/>
+      <c r="E1113" t="n">
+        <v>0.0103514359377762</v>
+      </c>
+      <c r="F1113" t="n">
+        <v>0.001820403444283789</v>
+      </c>
+      <c r="G1113" t="n">
+        <v>1.884378963441078e-05</v>
+      </c>
+      <c r="H1113" t="n">
+        <v>0.02434367876411998</v>
+      </c>
+    </row>
+    <row r="1114">
+      <c r="A1114" t="inlineStr"/>
+      <c r="B1114" t="inlineStr"/>
+      <c r="C1114" t="inlineStr"/>
+      <c r="D1114" t="inlineStr"/>
+      <c r="E1114" t="n">
+        <v>0.001771643841401179</v>
+      </c>
+      <c r="F1114" t="n">
+        <v>0.001585155015990529</v>
+      </c>
+      <c r="G1114" t="n">
+        <v>2.808330121745809e-06</v>
+      </c>
+      <c r="H1114" t="n">
+        <v>0.006713597714783416</v>
+      </c>
+    </row>
+    <row r="1115">
+      <c r="A1115" t="inlineStr"/>
+      <c r="B1115" t="inlineStr"/>
+      <c r="C1115" t="inlineStr"/>
+      <c r="D1115" t="inlineStr"/>
+      <c r="E1115" t="n">
+        <v>0.001771643841401179</v>
+      </c>
+      <c r="F1115" t="n">
+        <v>0.001585155015990529</v>
+      </c>
+      <c r="G1115" t="n">
+        <v>2.808330121745809e-06</v>
+      </c>
+      <c r="H1115" t="n">
+        <v>0.006713597714783416</v>
+      </c>
+    </row>
+    <row r="1116">
+      <c r="A1116" t="inlineStr"/>
+      <c r="B1116" t="inlineStr"/>
+      <c r="C1116" t="inlineStr"/>
+      <c r="D1116" t="inlineStr"/>
+      <c r="E1116" t="n">
+        <v>0.001771643841401179</v>
+      </c>
+      <c r="F1116" t="n">
+        <v>0.001585155015990529</v>
+      </c>
+      <c r="G1116" t="n">
+        <v>2.808330121745809e-06</v>
+      </c>
+      <c r="H1116" t="n">
+        <v>0.006713597714783416</v>
+      </c>
+    </row>
+    <row r="1117">
+      <c r="A1117" t="inlineStr"/>
+      <c r="B1117" t="inlineStr"/>
+      <c r="C1117" t="inlineStr"/>
+      <c r="D1117" t="inlineStr"/>
+      <c r="E1117" t="n">
+        <v>0.01026385425643329</v>
+      </c>
+      <c r="F1117" t="n">
+        <v>0.00177484655705364</v>
+      </c>
+      <c r="G1117" t="n">
+        <v>1.821676638913098e-05</v>
+      </c>
+      <c r="H1117" t="n">
+        <v>0.02407740162697386</v>
+      </c>
+    </row>
+    <row r="1118">
+      <c r="A1118" t="inlineStr"/>
+      <c r="B1118" t="inlineStr"/>
+      <c r="C1118" t="inlineStr"/>
+      <c r="D1118" t="inlineStr"/>
+      <c r="E1118" t="n">
+        <v>0.001771643841401179</v>
+      </c>
+      <c r="F1118" t="n">
+        <v>0.001585155015990529</v>
+      </c>
+      <c r="G1118" t="n">
+        <v>2.808330121745809e-06</v>
+      </c>
+      <c r="H1118" t="n">
+        <v>0.006713597714783416</v>
+      </c>
+    </row>
+    <row r="1119">
+      <c r="A1119" t="inlineStr"/>
+      <c r="B1119" t="inlineStr"/>
+      <c r="C1119" t="inlineStr"/>
+      <c r="D1119" t="inlineStr"/>
+      <c r="E1119" t="n">
+        <v>0.001771643841401179</v>
+      </c>
+      <c r="F1119" t="n">
+        <v>0.001585155015990529</v>
+      </c>
+      <c r="G1119" t="n">
+        <v>2.808330121745809e-06</v>
+      </c>
+      <c r="H1119" t="n">
+        <v>0.006713597714783416</v>
+      </c>
+    </row>
+    <row r="1120">
+      <c r="A1120" t="inlineStr"/>
+      <c r="B1120" t="inlineStr"/>
+      <c r="C1120" t="inlineStr"/>
+      <c r="D1120" t="inlineStr"/>
+      <c r="E1120" t="n">
+        <v>0.01025908433007839</v>
+      </c>
+      <c r="F1120" t="n">
+        <v>0.001820403444283789</v>
+      </c>
+      <c r="G1120" t="n">
+        <v>1.867567244967255e-05</v>
+      </c>
+      <c r="H1120" t="n">
+        <v>0.02415897554872436</v>
+      </c>
+    </row>
+    <row r="1121">
+      <c r="A1121" t="inlineStr"/>
+      <c r="B1121" t="inlineStr"/>
+      <c r="C1121" t="inlineStr"/>
+      <c r="D1121" t="inlineStr"/>
+      <c r="E1121" t="n">
+        <v>0.01025910069224188</v>
+      </c>
+      <c r="F1121" t="n">
+        <v>0.001820871366589521</v>
+      </c>
+      <c r="G1121" t="n">
+        <v>1.868050269746196e-05</v>
+      </c>
+      <c r="H1121" t="n">
+        <v>0.02415994411766279</v>
+      </c>
+    </row>
+    <row r="1122">
+      <c r="A1122" t="inlineStr"/>
+      <c r="B1122" t="inlineStr"/>
+      <c r="C1122" t="inlineStr"/>
+      <c r="D1122" t="inlineStr"/>
+      <c r="E1122" t="n">
+        <v>0.01035180159656016</v>
+      </c>
+      <c r="F1122" t="n">
+        <v>0.001782073119976033</v>
+      </c>
+      <c r="G1122" t="n">
+        <v>1.844766736855484e-05</v>
+      </c>
+      <c r="H1122" t="n">
+        <v>0.02426774943307238</v>
+      </c>
+    </row>
+    <row r="1123">
+      <c r="A1123" t="inlineStr"/>
+      <c r="B1123" t="inlineStr"/>
+      <c r="C1123" t="inlineStr"/>
+      <c r="D1123" t="inlineStr"/>
+      <c r="E1123" t="n">
+        <v>0.01025643721658599</v>
+      </c>
+      <c r="F1123" t="n">
+        <v>0.001817750817453688</v>
+      </c>
+      <c r="G1123" t="n">
+        <v>1.86436471346116e-05</v>
+      </c>
+      <c r="H1123" t="n">
+        <v>0.02414837606807935</v>
+      </c>
+    </row>
+    <row r="1124">
+      <c r="A1124" t="inlineStr"/>
+      <c r="B1124" t="inlineStr"/>
+      <c r="C1124" t="inlineStr"/>
+      <c r="D1124" t="inlineStr"/>
+      <c r="E1124" t="n">
+        <v>0.001771643841401179</v>
+      </c>
+      <c r="F1124" t="n">
+        <v>0.001678399428695854</v>
+      </c>
+      <c r="G1124" t="n">
+        <v>2.973526011260268e-06</v>
+      </c>
+      <c r="H1124" t="n">
+        <v>0.006900086540194067</v>
+      </c>
+    </row>
+    <row r="1125">
+      <c r="A1125" t="inlineStr"/>
+      <c r="B1125" t="inlineStr"/>
+      <c r="C1125" t="inlineStr"/>
+      <c r="D1125" t="inlineStr"/>
+      <c r="E1125" t="n">
+        <v>0.001864888254106505</v>
+      </c>
+      <c r="F1125" t="n">
+        <v>0.001585155015990529</v>
+      </c>
+      <c r="G1125" t="n">
+        <v>2.956136970258746e-06</v>
+      </c>
+      <c r="H1125" t="n">
+        <v>0.006900086540194067</v>
+      </c>
+    </row>
+    <row r="1126">
+      <c r="A1126" t="inlineStr"/>
+      <c r="B1126" t="inlineStr"/>
+      <c r="C1126" t="inlineStr"/>
+      <c r="D1126" t="inlineStr"/>
+      <c r="E1126" t="n">
+        <v>0.001771643841401179</v>
+      </c>
+      <c r="F1126" t="n">
+        <v>0.001025688539758578</v>
+      </c>
+      <c r="G1126" t="n">
+        <v>1.817154784659053e-06</v>
+      </c>
+      <c r="H1126" t="n">
+        <v>0.005594664762319514</v>
+      </c>
+    </row>
+    <row r="1127">
+      <c r="A1127" t="inlineStr"/>
+      <c r="B1127" t="inlineStr"/>
+      <c r="C1127" t="inlineStr"/>
+      <c r="D1127" t="inlineStr"/>
+      <c r="E1127" t="n">
+        <v>0.001732209426757436</v>
+      </c>
+      <c r="F1127" t="n">
+        <v>0.00170155082292861</v>
+      </c>
+      <c r="G1127" t="n">
+        <v>2.94744237558381e-06</v>
+      </c>
+      <c r="H1127" t="n">
+        <v>0.006867520499372092</v>
+      </c>
+    </row>
+    <row r="1128">
+      <c r="A1128" t="inlineStr"/>
+      <c r="B1128" t="inlineStr"/>
+      <c r="C1128" t="inlineStr"/>
+      <c r="D1128" t="inlineStr"/>
+      <c r="E1128" t="n">
+        <v>0.001772810001248646</v>
+      </c>
+      <c r="F1128" t="n">
+        <v>0.001671506333779257</v>
+      </c>
+      <c r="G1128" t="n">
+        <v>2.963263145674325e-06</v>
+      </c>
+      <c r="H1128" t="n">
+        <v>0.006888632670055806</v>
+      </c>
+    </row>
+    <row r="1129">
+      <c r="A1129" t="inlineStr"/>
+      <c r="B1129" t="inlineStr"/>
+      <c r="C1129" t="inlineStr"/>
+      <c r="D1129" t="inlineStr"/>
+      <c r="E1129" t="n">
+        <v>0.01016699736258998</v>
+      </c>
+      <c r="F1129" t="n">
+        <v>0.0007384680112020778</v>
+      </c>
+      <c r="G1129" t="n">
+        <v>7.508002322248594e-06</v>
+      </c>
+      <c r="H1129" t="n">
+        <v>0.02181093074758412</v>
+      </c>
+    </row>
+    <row r="1130">
+      <c r="A1130" t="inlineStr"/>
+      <c r="B1130" t="inlineStr"/>
+      <c r="C1130" t="inlineStr"/>
+      <c r="D1130" t="inlineStr"/>
+      <c r="E1130" t="n">
+        <v>0.001864888254106505</v>
+      </c>
+      <c r="F1130" t="n">
+        <v>0.001585155015990529</v>
+      </c>
+      <c r="G1130" t="n">
+        <v>2.956136970258746e-06</v>
+      </c>
+      <c r="H1130" t="n">
+        <v>0.006900086540194067</v>
+      </c>
+    </row>
+    <row r="1131">
+      <c r="A1131" t="inlineStr"/>
+      <c r="B1131" t="inlineStr"/>
+      <c r="C1131" t="inlineStr"/>
+      <c r="D1131" t="inlineStr"/>
+      <c r="E1131" t="n">
+        <v>0.001771643841401179</v>
+      </c>
+      <c r="F1131" t="n">
+        <v>0.001585155015990529</v>
+      </c>
+      <c r="G1131" t="n">
+        <v>2.808330121745809e-06</v>
+      </c>
+      <c r="H1131" t="n">
+        <v>0.006713597714783416</v>
+      </c>
+    </row>
+    <row r="1132">
+      <c r="A1132" t="inlineStr"/>
+      <c r="B1132" t="inlineStr"/>
+      <c r="C1132" t="inlineStr"/>
+      <c r="D1132" t="inlineStr"/>
+      <c r="E1132" t="n">
+        <v>0.001771643841401179</v>
+      </c>
+      <c r="F1132" t="n">
+        <v>0.001585155015990529</v>
+      </c>
+      <c r="G1132" t="n">
+        <v>2.808330121745809e-06</v>
+      </c>
+      <c r="H1132" t="n">
+        <v>0.006713597714783416</v>
+      </c>
+    </row>
+    <row r="1133">
+      <c r="A1133" t="inlineStr"/>
+      <c r="B1133" t="inlineStr"/>
+      <c r="C1133" t="inlineStr"/>
+      <c r="D1133" t="inlineStr"/>
+      <c r="E1133" t="n">
+        <v>0.01657035992092892</v>
+      </c>
+      <c r="F1133" t="n">
+        <v>0.007471042100785691</v>
+      </c>
+      <c r="G1133" t="n">
+        <v>0.0001237978565944318</v>
+      </c>
+      <c r="H1133" t="n">
+        <v>0.04808280404342923</v>
+      </c>
+    </row>
+    <row r="1134">
+      <c r="A1134" t="inlineStr"/>
+      <c r="B1134" t="inlineStr"/>
+      <c r="C1134" t="inlineStr"/>
+      <c r="D1134" t="inlineStr"/>
+      <c r="E1134" t="n">
+        <v>0.001865246976755939</v>
+      </c>
+      <c r="F1134" t="n">
+        <v>0.001590945799067169</v>
+      </c>
+      <c r="G1134" t="n">
+        <v>2.967506841892598e-06</v>
+      </c>
+      <c r="H1134" t="n">
+        <v>0.006912385551646216</v>
+      </c>
+    </row>
+    <row r="1135">
+      <c r="A1135" t="inlineStr"/>
+      <c r="B1135" t="inlineStr"/>
+      <c r="C1135" t="inlineStr"/>
+      <c r="D1135" t="inlineStr"/>
+      <c r="E1135" t="n">
+        <v>0.001828161066121011</v>
+      </c>
+      <c r="F1135" t="n">
+        <v>0.001592269177963768</v>
+      </c>
+      <c r="G1135" t="n">
+        <v>2.910924517937868e-06</v>
+      </c>
+      <c r="H1135" t="n">
+        <v>0.006840860488169558</v>
+      </c>
+    </row>
+    <row r="1136">
+      <c r="A1136" t="inlineStr"/>
+      <c r="B1136" t="inlineStr"/>
+      <c r="C1136" t="inlineStr"/>
+      <c r="D1136" t="inlineStr"/>
+      <c r="E1136" t="n">
+        <v>0.001834807661487724</v>
+      </c>
+      <c r="F1136" t="n">
+        <v>0.001584606349964994</v>
+      </c>
+      <c r="G1136" t="n">
+        <v>2.907447871357868e-06</v>
+      </c>
+      <c r="H1136" t="n">
+        <v>0.006838828022905435</v>
+      </c>
+    </row>
+    <row r="1137">
+      <c r="A1137" t="inlineStr"/>
+      <c r="B1137" t="inlineStr"/>
+      <c r="C1137" t="inlineStr"/>
+      <c r="D1137" t="inlineStr"/>
+      <c r="E1137" t="n">
+        <v>0.01059240223080883</v>
+      </c>
+      <c r="F1137" t="n">
+        <v>0.0005060182687254575</v>
+      </c>
+      <c r="G1137" t="n">
+        <v>5.359949038477559e-06</v>
+      </c>
+      <c r="H1137" t="n">
+        <v>0.02219684099906858</v>
+      </c>
+    </row>
+    <row r="1138">
+      <c r="A1138" t="inlineStr"/>
+      <c r="B1138" t="inlineStr"/>
+      <c r="C1138" t="inlineStr"/>
+      <c r="D1138" t="inlineStr"/>
+      <c r="E1138" t="n">
+        <v>0.00187650752437564</v>
+      </c>
+      <c r="F1138" t="n">
+        <v>0.001626306568552115</v>
+      </c>
+      <c r="G1138" t="n">
+        <v>3.051776512829571e-06</v>
+      </c>
+      <c r="H1138" t="n">
+        <v>0.00700562818585551</v>
+      </c>
+    </row>
+    <row r="1139">
+      <c r="A1139" t="inlineStr"/>
+      <c r="B1139" t="inlineStr"/>
+      <c r="C1139" t="inlineStr"/>
+      <c r="D1139" t="inlineStr"/>
+      <c r="E1139" t="n">
+        <v>0.01059255233587384</v>
+      </c>
+      <c r="F1139" t="n">
+        <v>0.001067535217493845</v>
+      </c>
+      <c r="G1139" t="n">
+        <v>1.130792266169201e-05</v>
+      </c>
+      <c r="H1139" t="n">
+        <v>0.02332017510673537</v>
+      </c>
+    </row>
+    <row r="1140">
+      <c r="A1140" t="inlineStr"/>
+      <c r="B1140" t="inlineStr"/>
+      <c r="C1140" t="inlineStr"/>
+      <c r="D1140" t="inlineStr"/>
+      <c r="E1140" t="n">
+        <v>0.001918207742962762</v>
+      </c>
+      <c r="F1140" t="n">
+        <v>0.001584606349964994</v>
+      </c>
+      <c r="G1140" t="n">
+        <v>3.03960417005081e-06</v>
+      </c>
+      <c r="H1140" t="n">
+        <v>0.00700562818585551</v>
+      </c>
+    </row>
+    <row r="1141">
+      <c r="A1141" t="inlineStr"/>
+      <c r="B1141" t="inlineStr"/>
+      <c r="C1141" t="inlineStr"/>
+      <c r="D1141" t="inlineStr"/>
+      <c r="E1141" t="n">
+        <v>0.01059200811608838</v>
+      </c>
+      <c r="F1141" t="n">
+        <v>0.0004873082681682902</v>
+      </c>
+      <c r="G1141" t="n">
+        <v>5.161573131475505e-06</v>
+      </c>
+      <c r="H1141" t="n">
+        <v>0.02215863276851335</v>
+      </c>
+    </row>
+    <row r="1142">
+      <c r="A1142" t="inlineStr"/>
+      <c r="B1142" t="inlineStr"/>
+      <c r="C1142" t="inlineStr"/>
+      <c r="D1142" t="inlineStr"/>
+      <c r="E1142" t="n">
+        <v>0.01059163249772666</v>
+      </c>
+      <c r="F1142" t="n">
+        <v>0.0004904343751042199</v>
+      </c>
+      <c r="G1142" t="n">
+        <v>5.19450066535612e-06</v>
+      </c>
+      <c r="H1142" t="n">
+        <v>0.02216413374566175</v>
+      </c>
+    </row>
+    <row r="1143">
+      <c r="A1143" t="inlineStr"/>
+      <c r="B1143" t="inlineStr"/>
+      <c r="C1143" t="inlineStr"/>
+      <c r="D1143" t="inlineStr"/>
+      <c r="E1143" t="n">
+        <v>0.001918207742962762</v>
+      </c>
+      <c r="F1143" t="n">
+        <v>0.001584606349964994</v>
+      </c>
+      <c r="G1143" t="n">
+        <v>3.03960417005081e-06</v>
+      </c>
+      <c r="H1143" t="n">
+        <v>0.00700562818585551</v>
+      </c>
+    </row>
+    <row r="1144">
+      <c r="A1144" t="inlineStr"/>
+      <c r="B1144" t="inlineStr"/>
+      <c r="C1144" t="inlineStr"/>
+      <c r="D1144" t="inlineStr"/>
+      <c r="E1144" t="n">
+        <v>0.01063545819692032</v>
+      </c>
+      <c r="F1144" t="n">
+        <v>0.001066918257220722</v>
+      </c>
+      <c r="G1144" t="n">
+        <v>1.134716452420207e-05</v>
+      </c>
+      <c r="H1144" t="n">
+        <v>0.02340475290828208</v>
+      </c>
+    </row>
+    <row r="1145">
+      <c r="A1145" t="inlineStr"/>
+      <c r="B1145" t="inlineStr"/>
+      <c r="C1145" t="inlineStr"/>
+      <c r="D1145" t="inlineStr"/>
+      <c r="E1145" t="n">
+        <v>0.01059163249772666</v>
+      </c>
+      <c r="F1145" t="n">
+        <v>0.000485179808580899</v>
+      </c>
+      <c r="G1145" t="n">
+        <v>5.138846227806248e-06</v>
+      </c>
+      <c r="H1145" t="n">
+        <v>0.02215362461261511</v>
+      </c>
+    </row>
+    <row r="1146">
+      <c r="A1146" t="inlineStr"/>
+      <c r="B1146" t="inlineStr"/>
+      <c r="C1146" t="inlineStr"/>
+      <c r="D1146" t="inlineStr"/>
+      <c r="E1146" t="n">
+        <v>0.0121934114718173</v>
+      </c>
+      <c r="F1146" t="n">
+        <v>0.005476360629140267</v>
+      </c>
+      <c r="G1146" t="n">
+        <v>6.677551851916753e-05</v>
+      </c>
+      <c r="H1146" t="n">
+        <v>0.03533954420191513</v>
+      </c>
+    </row>
+    <row r="1147">
+      <c r="A1147" t="inlineStr"/>
+      <c r="B1147" t="inlineStr"/>
+      <c r="C1147" t="inlineStr"/>
+      <c r="D1147" t="inlineStr"/>
+      <c r="E1147" t="n">
+        <v>0.001877938857981315</v>
+      </c>
+      <c r="F1147" t="n">
+        <v>0.001620957563889553</v>
+      </c>
+      <c r="G1147" t="n">
+        <v>3.044059196366922e-06</v>
+      </c>
+      <c r="H1147" t="n">
+        <v>0.006997792843741737</v>
+      </c>
+    </row>
+    <row r="1148">
+      <c r="A1148" t="inlineStr"/>
+      <c r="B1148" t="inlineStr"/>
+      <c r="C1148" t="inlineStr"/>
+      <c r="D1148" t="inlineStr"/>
+      <c r="E1148" t="n">
+        <v>0.001875223628090927</v>
+      </c>
+      <c r="F1148" t="n">
+        <v>0.001604237567003771</v>
+      </c>
+      <c r="G1148" t="n">
+        <v>3.008304190716572e-06</v>
+      </c>
+      <c r="H1148" t="n">
+        <v>0.006958922390189395</v>
+      </c>
+    </row>
+    <row r="1149">
+      <c r="A1149" t="inlineStr"/>
+      <c r="B1149" t="inlineStr"/>
+      <c r="C1149" t="inlineStr"/>
+      <c r="D1149" t="inlineStr"/>
+      <c r="E1149" t="n">
+        <v>0.001886063027850508</v>
+      </c>
+      <c r="F1149" t="n">
+        <v>0.001604237567003771</v>
+      </c>
+      <c r="G1149" t="n">
+        <v>3.025693163014664e-06</v>
+      </c>
+      <c r="H1149" t="n">
+        <v>0.006980601189708557</v>
+      </c>
+    </row>
+    <row r="1150">
+      <c r="A1150" t="inlineStr"/>
+      <c r="B1150" t="inlineStr"/>
+      <c r="C1150" t="inlineStr"/>
+      <c r="D1150" t="inlineStr"/>
+      <c r="E1150" t="n">
+        <v>0.001887878338749257</v>
+      </c>
+      <c r="F1150" t="n">
+        <v>0.001603403452365275</v>
+      </c>
+      <c r="G1150" t="n">
+        <v>3.027030645996178e-06</v>
+      </c>
+      <c r="H1150" t="n">
+        <v>0.006982563582229062</v>
+      </c>
+    </row>
+    <row r="1151">
+      <c r="A1151" t="inlineStr"/>
+      <c r="B1151" t="inlineStr"/>
+      <c r="C1151" t="inlineStr"/>
+      <c r="D1151" t="inlineStr"/>
+      <c r="E1151" t="n">
+        <v>0.001887878338749257</v>
+      </c>
+      <c r="F1151" t="n">
+        <v>0.001603403452365275</v>
+      </c>
+      <c r="G1151" t="n">
+        <v>3.027030645996178e-06</v>
+      </c>
+      <c r="H1151" t="n">
+        <v>0.006982563582229062</v>
+      </c>
+    </row>
+    <row r="1152">
+      <c r="A1152" t="inlineStr"/>
+      <c r="B1152" t="inlineStr"/>
+      <c r="C1152" t="inlineStr"/>
+      <c r="D1152" t="inlineStr"/>
+      <c r="E1152" t="n">
+        <v>0.001887878338749257</v>
+      </c>
+      <c r="F1152" t="n">
+        <v>0.001603403452365275</v>
+      </c>
+      <c r="G1152" t="n">
+        <v>3.027030645996178e-06</v>
+      </c>
+      <c r="H1152" t="n">
+        <v>0.006982563582229062</v>
+      </c>
+    </row>
+    <row r="1153">
+      <c r="A1153" t="inlineStr"/>
+      <c r="B1153" t="inlineStr"/>
+      <c r="C1153" t="inlineStr"/>
+      <c r="D1153" t="inlineStr"/>
+      <c r="E1153" t="n">
+        <v>0.001918581227129252</v>
+      </c>
+      <c r="F1153" t="n">
+        <v>0.001593397989394586</v>
+      </c>
+      <c r="G1153" t="n">
+        <v>3.057063469797949e-06</v>
+      </c>
+      <c r="H1153" t="n">
+        <v>0.007023958433047678</v>
+      </c>
+    </row>
+    <row r="1154">
+      <c r="A1154" t="inlineStr"/>
+      <c r="B1154" t="inlineStr"/>
+      <c r="C1154" t="inlineStr"/>
+      <c r="D1154" t="inlineStr"/>
+      <c r="E1154" t="n">
+        <v>0.00193960091601936</v>
+      </c>
+      <c r="F1154" t="n">
+        <v>0.001577542163730223</v>
+      </c>
+      <c r="G1154" t="n">
+        <v>3.059802225830304e-06</v>
+      </c>
+      <c r="H1154" t="n">
+        <v>0.007034286159499166</v>
+      </c>
+    </row>
+    <row r="1155">
+      <c r="A1155" t="inlineStr"/>
+      <c r="B1155" t="inlineStr"/>
+      <c r="C1155" t="inlineStr"/>
+      <c r="D1155" t="inlineStr"/>
+      <c r="E1155" t="n">
+        <v>0.001887878338749257</v>
+      </c>
+      <c r="F1155" t="n">
+        <v>0.001577542163730223</v>
+      </c>
+      <c r="G1155" t="n">
+        <v>2.978207679369921e-06</v>
+      </c>
+      <c r="H1155" t="n">
+        <v>0.00693084100495896</v>
+      </c>
+    </row>
+    <row r="1156">
+      <c r="A1156" t="inlineStr"/>
+      <c r="B1156" t="inlineStr"/>
+      <c r="C1156" t="inlineStr"/>
+      <c r="D1156" t="inlineStr"/>
+      <c r="E1156" t="n">
+        <v>0.001862016872264602</v>
+      </c>
+      <c r="F1156" t="n">
+        <v>0.001603403452365275</v>
+      </c>
+      <c r="G1156" t="n">
+        <v>2.985564281351453e-06</v>
+      </c>
+      <c r="H1156" t="n">
+        <v>0.006930840649259753</v>
+      </c>
+    </row>
+    <row r="1157">
+      <c r="A1157" t="inlineStr"/>
+      <c r="B1157" t="inlineStr"/>
+      <c r="C1157" t="inlineStr"/>
+      <c r="D1157" t="inlineStr"/>
+      <c r="E1157" t="n">
+        <v>0.001887878338749257</v>
+      </c>
+      <c r="F1157" t="n">
+        <v>0.001577542163730223</v>
+      </c>
+      <c r="G1157" t="n">
+        <v>2.978207679369921e-06</v>
+      </c>
+      <c r="H1157" t="n">
+        <v>0.00693084100495896</v>
+      </c>
+    </row>
+    <row r="1158">
+      <c r="A1158" t="inlineStr"/>
+      <c r="B1158" t="inlineStr"/>
+      <c r="C1158" t="inlineStr"/>
+      <c r="D1158" t="inlineStr"/>
+      <c r="E1158" t="n">
+        <v>0.001887878338749257</v>
+      </c>
+      <c r="F1158" t="n">
+        <v>0.001577542163730223</v>
+      </c>
+      <c r="G1158" t="n">
+        <v>2.978207679369921e-06</v>
+      </c>
+      <c r="H1158" t="n">
+        <v>0.00693084100495896</v>
+      </c>
+    </row>
+    <row r="1159">
+      <c r="A1159" t="inlineStr"/>
+      <c r="B1159" t="inlineStr"/>
+      <c r="C1159" t="inlineStr"/>
+      <c r="D1159" t="inlineStr"/>
+      <c r="E1159" t="n">
+        <v>0.001862016872264602</v>
+      </c>
+      <c r="F1159" t="n">
+        <v>0.001603403452365275</v>
+      </c>
+      <c r="G1159" t="n">
+        <v>2.985564281351453e-06</v>
+      </c>
+      <c r="H1159" t="n">
+        <v>0.006930840649259753</v>
+      </c>
+    </row>
+    <row r="1160">
+      <c r="A1160" t="inlineStr"/>
+      <c r="B1160" t="inlineStr"/>
+      <c r="C1160" t="inlineStr"/>
+      <c r="D1160" t="inlineStr"/>
+      <c r="E1160" t="n">
+        <v>0.001862016872264602</v>
+      </c>
+      <c r="F1160" t="n">
+        <v>0.001577542163730223</v>
+      </c>
+      <c r="G1160" t="n">
+        <v>2.937410125574482e-06</v>
+      </c>
+      <c r="H1160" t="n">
+        <v>0.00687911807198965</v>
+      </c>
+    </row>
+    <row r="1161">
+      <c r="A1161" t="inlineStr"/>
+      <c r="B1161" t="inlineStr"/>
+      <c r="C1161" t="inlineStr"/>
+      <c r="D1161" t="inlineStr"/>
+      <c r="E1161" t="n">
+        <v>0.001913739449534706</v>
+      </c>
+      <c r="F1161" t="n">
+        <v>0.001577542163730223</v>
+      </c>
+      <c r="G1161" t="n">
+        <v>3.019004672034865e-06</v>
+      </c>
+      <c r="H1161" t="n">
+        <v>0.006982563226529856</v>
+      </c>
+    </row>
+    <row r="1162">
+      <c r="A1162" t="inlineStr"/>
+      <c r="B1162" t="inlineStr"/>
+      <c r="C1162" t="inlineStr"/>
+      <c r="D1162" t="inlineStr"/>
+      <c r="E1162" t="n">
+        <v>0.001887878160899654</v>
+      </c>
+      <c r="F1162" t="n">
+        <v>0.001577542163730223</v>
+      </c>
+      <c r="G1162" t="n">
+        <v>2.978207398804673e-06</v>
+      </c>
+      <c r="H1162" t="n">
+        <v>0.006930840649259753</v>
+      </c>
+    </row>
+    <row r="1163">
+      <c r="A1163" t="inlineStr"/>
+      <c r="B1163" t="inlineStr"/>
+      <c r="C1163" t="inlineStr"/>
+      <c r="D1163" t="inlineStr"/>
+      <c r="E1163" t="n">
+        <v>0.0104991115772067</v>
+      </c>
+      <c r="F1163" t="n">
+        <v>0.001070080156389274</v>
+      </c>
+      <c r="G1163" t="n">
+        <v>1.123489095848579e-05</v>
+      </c>
+      <c r="H1163" t="n">
+        <v>0.02313838346719196</v>
+      </c>
+    </row>
+    <row r="1164">
+      <c r="A1164" t="inlineStr"/>
+      <c r="B1164" t="inlineStr"/>
+      <c r="C1164" t="inlineStr"/>
+      <c r="D1164" t="inlineStr"/>
+      <c r="E1164" t="n">
+        <v>0.01052712360109193</v>
+      </c>
+      <c r="F1164" t="n">
+        <v>0.001070080156389274</v>
+      </c>
+      <c r="G1164" t="n">
+        <v>1.126486606938567e-05</v>
+      </c>
+      <c r="H1164" t="n">
+        <v>0.02319440751496242</v>
+      </c>
+    </row>
+    <row r="1165">
+      <c r="A1165" t="inlineStr"/>
+      <c r="B1165" t="inlineStr"/>
+      <c r="C1165" t="inlineStr"/>
+      <c r="D1165" t="inlineStr"/>
+      <c r="E1165" t="n">
+        <v>0.0104991115772067</v>
+      </c>
+      <c r="F1165" t="n">
+        <v>0.001070080156389274</v>
+      </c>
+      <c r="G1165" t="n">
+        <v>1.123489095848579e-05</v>
+      </c>
+      <c r="H1165" t="n">
+        <v>0.02313838346719196</v>
+      </c>
+    </row>
+    <row r="1166">
+      <c r="A1166" t="inlineStr"/>
+      <c r="B1166" t="inlineStr"/>
+      <c r="C1166" t="inlineStr"/>
+      <c r="D1166" t="inlineStr"/>
+      <c r="E1166" t="n">
+        <v>0.01049972409123975</v>
+      </c>
+      <c r="F1166" t="n">
+        <v>0.001653825771187181</v>
+      </c>
+      <c r="G1166" t="n">
+        <v>1.73647142924472e-05</v>
+      </c>
+      <c r="H1166" t="n">
+        <v>0.02430709972485386</v>
+      </c>
+    </row>
+    <row r="1167">
+      <c r="A1167" t="inlineStr"/>
+      <c r="B1167" t="inlineStr"/>
+      <c r="C1167" t="inlineStr"/>
+      <c r="D1167" t="inlineStr"/>
+      <c r="E1167" t="n">
+        <v>0.01048341599403473</v>
+      </c>
+      <c r="F1167" t="n">
+        <v>0.002104861968504287</v>
+      </c>
+      <c r="G1167" t="n">
+        <v>2.206614362585325e-05</v>
+      </c>
+      <c r="H1167" t="n">
+        <v>0.02517655592507802</v>
+      </c>
+    </row>
+    <row r="1168">
+      <c r="A1168" t="inlineStr"/>
+      <c r="B1168" t="inlineStr"/>
+      <c r="C1168" t="inlineStr"/>
+      <c r="D1168" t="inlineStr"/>
+      <c r="E1168" t="n">
+        <v>0.01052712360109193</v>
+      </c>
+      <c r="F1168" t="n">
+        <v>0.001070080156389274</v>
+      </c>
+      <c r="G1168" t="n">
+        <v>1.126486606938567e-05</v>
+      </c>
+      <c r="H1168" t="n">
+        <v>0.02319440751496242</v>
+      </c>
+    </row>
+    <row r="1169">
+      <c r="A1169" t="inlineStr"/>
+      <c r="B1169" t="inlineStr"/>
+      <c r="C1169" t="inlineStr"/>
+      <c r="D1169" t="inlineStr"/>
+      <c r="E1169" t="n">
+        <v>0.01052681058579049</v>
+      </c>
+      <c r="F1169" t="n">
+        <v>0.0005002903554835102</v>
+      </c>
+      <c r="G1169" t="n">
+        <v>5.266461810072705e-06</v>
+      </c>
+      <c r="H1169" t="n">
+        <v>0.02205420188254801</v>
+      </c>
+    </row>
+    <row r="1170">
+      <c r="A1170" t="inlineStr"/>
+      <c r="B1170" t="inlineStr"/>
+      <c r="C1170" t="inlineStr"/>
+      <c r="D1170" t="inlineStr"/>
+      <c r="E1170" t="n">
+        <v>0.001886063027850508</v>
+      </c>
+      <c r="F1170" t="n">
+        <v>0.001625916366522934</v>
+      </c>
+      <c r="G1170" t="n">
+        <v>3.066580745275941e-06</v>
+      </c>
+      <c r="H1170" t="n">
+        <v>0.007023958788746884</v>
+      </c>
+    </row>
+    <row r="1171">
+      <c r="A1171" t="inlineStr"/>
+      <c r="B1171" t="inlineStr"/>
+      <c r="C1171" t="inlineStr"/>
+      <c r="D1171" t="inlineStr"/>
+      <c r="E1171" t="n">
+        <v>0.01052712360109193</v>
+      </c>
+      <c r="F1171" t="n">
+        <v>0.001070080156389274</v>
+      </c>
+      <c r="G1171" t="n">
+        <v>1.126486606938567e-05</v>
+      </c>
+      <c r="H1171" t="n">
+        <v>0.02319440751496242</v>
+      </c>
+    </row>
+    <row r="1172">
+      <c r="A1172" t="inlineStr"/>
+      <c r="B1172" t="inlineStr"/>
+      <c r="C1172" t="inlineStr"/>
+      <c r="D1172" t="inlineStr"/>
+      <c r="E1172" t="n">
+        <v>0.01057760443243326</v>
+      </c>
+      <c r="F1172" t="n">
+        <v>0.001068256842258386</v>
+      </c>
+      <c r="G1172" t="n">
+        <v>1.129959830964946e-05</v>
+      </c>
+      <c r="H1172" t="n">
+        <v>0.02329172254938329</v>
+      </c>
+    </row>
+    <row r="1173">
+      <c r="A1173" t="inlineStr"/>
+      <c r="B1173" t="inlineStr"/>
+      <c r="C1173" t="inlineStr"/>
+      <c r="D1173" t="inlineStr"/>
+      <c r="E1173" t="n">
+        <v>0.00188787851659886</v>
+      </c>
+      <c r="F1173" t="n">
+        <v>0.001629264918849929</v>
+      </c>
+      <c r="G1173" t="n">
+        <v>3.075854238144967e-06</v>
+      </c>
+      <c r="H1173" t="n">
+        <v>0.007034286870897579</v>
+      </c>
+    </row>
+    <row r="1174">
+      <c r="A1174" t="inlineStr"/>
+      <c r="B1174" t="inlineStr"/>
+      <c r="C1174" t="inlineStr"/>
+      <c r="D1174" t="inlineStr"/>
+      <c r="E1174" t="n">
+        <v>0.01055091347539979</v>
+      </c>
+      <c r="F1174" t="n">
+        <v>0.001590825217036273</v>
+      </c>
+      <c r="G1174" t="n">
+        <v>1.678465921943381e-05</v>
+      </c>
+      <c r="H1174" t="n">
+        <v>0.02428347738487212</v>
+      </c>
+    </row>
+    <row r="1175">
+      <c r="A1175" t="inlineStr"/>
+      <c r="B1175" t="inlineStr"/>
+      <c r="C1175" t="inlineStr"/>
+      <c r="D1175" t="inlineStr"/>
+      <c r="E1175" t="n">
+        <v>0.001886063027850508</v>
+      </c>
+      <c r="F1175" t="n">
+        <v>0.001625916366522934</v>
+      </c>
+      <c r="G1175" t="n">
+        <v>3.066580745275941e-06</v>
+      </c>
+      <c r="H1175" t="n">
+        <v>0.007023958788746884</v>
+      </c>
+    </row>
+    <row r="1176">
+      <c r="A1176" t="inlineStr"/>
+      <c r="B1176" t="inlineStr"/>
+      <c r="C1176" t="inlineStr"/>
+      <c r="D1176" t="inlineStr"/>
+      <c r="E1176" t="n">
+        <v>0.0105495333624798</v>
+      </c>
+      <c r="F1176" t="n">
+        <v>0.001070080156389274</v>
+      </c>
+      <c r="G1176" t="n">
+        <v>1.128884631035625e-05</v>
+      </c>
+      <c r="H1176" t="n">
+        <v>0.02323922703773815</v>
+      </c>
+    </row>
+    <row r="1177">
+      <c r="A1177" t="inlineStr"/>
+      <c r="B1177" t="inlineStr"/>
+      <c r="C1177" t="inlineStr"/>
+      <c r="D1177" t="inlineStr"/>
+      <c r="E1177" t="n">
+        <v>0.0104991115772067</v>
+      </c>
+      <c r="F1177" t="n">
+        <v>0.001070080156389274</v>
+      </c>
+      <c r="G1177" t="n">
+        <v>1.123489095848579e-05</v>
+      </c>
+      <c r="H1177" t="n">
+        <v>0.02313838346719196</v>
+      </c>
+    </row>
+    <row r="1178">
+      <c r="A1178" t="inlineStr"/>
+      <c r="B1178" t="inlineStr"/>
+      <c r="C1178" t="inlineStr"/>
+      <c r="D1178" t="inlineStr"/>
+      <c r="E1178" t="n">
+        <v>0.001896902605459693</v>
+      </c>
+      <c r="F1178" t="n">
+        <v>0.001636755944132118</v>
+      </c>
+      <c r="G1178" t="n">
+        <v>3.104766614925855e-06</v>
+      </c>
+      <c r="H1178" t="n">
+        <v>0.007067317099183622</v>
+      </c>
+    </row>
+    <row r="1179">
+      <c r="A1179" t="inlineStr"/>
+      <c r="B1179" t="inlineStr"/>
+      <c r="C1179" t="inlineStr"/>
+      <c r="D1179" t="inlineStr"/>
+      <c r="E1179" t="n">
+        <v>0.001913739627384309</v>
+      </c>
+      <c r="F1179" t="n">
+        <v>0.001629264918849929</v>
+      </c>
+      <c r="G1179" t="n">
+        <v>3.11798883871019e-06</v>
+      </c>
+      <c r="H1179" t="n">
+        <v>0.007086009092468476</v>
+      </c>
+    </row>
+    <row r="1180">
+      <c r="A1180" t="inlineStr"/>
+      <c r="B1180" t="inlineStr"/>
+      <c r="C1180" t="inlineStr"/>
+      <c r="D1180" t="inlineStr"/>
+      <c r="E1180" t="n">
+        <v>0.01051938216356859</v>
+      </c>
+      <c r="F1180" t="n">
+        <v>0.001680611522059099</v>
+      </c>
+      <c r="G1180" t="n">
+        <v>1.767899486903635e-05</v>
+      </c>
+      <c r="H1180" t="n">
+        <v>0.02439998737125538</v>
+      </c>
+    </row>
+    <row r="1181">
+      <c r="A1181" t="inlineStr"/>
+      <c r="B1181" t="inlineStr"/>
+      <c r="C1181" t="inlineStr"/>
+      <c r="D1181" t="inlineStr"/>
+      <c r="E1181" t="n">
+        <v>0.001883537385637014</v>
+      </c>
+      <c r="F1181" t="n">
+        <v>0.001622452745502738</v>
+      </c>
+      <c r="G1181" t="n">
+        <v>3.055950402583824e-06</v>
+      </c>
+      <c r="H1181" t="n">
+        <v>0.007011980262279505</v>
+      </c>
+    </row>
+    <row r="1182">
+      <c r="A1182" t="inlineStr"/>
+      <c r="B1182" t="inlineStr"/>
+      <c r="C1182" t="inlineStr"/>
+      <c r="D1182" t="inlineStr"/>
+      <c r="E1182" t="n">
+        <v>0.001883537385637014</v>
+      </c>
+      <c r="F1182" t="n">
+        <v>0.001622452745502738</v>
+      </c>
+      <c r="G1182" t="n">
+        <v>3.055950402583824e-06</v>
+      </c>
+      <c r="H1182" t="n">
+        <v>0.007011980262279505</v>
+      </c>
+    </row>
+    <row r="1183">
+      <c r="A1183" t="inlineStr"/>
+      <c r="B1183" t="inlineStr"/>
+      <c r="C1183" t="inlineStr"/>
+      <c r="D1183" t="inlineStr"/>
+      <c r="E1183" t="n">
+        <v>0.0105464892886733</v>
+      </c>
+      <c r="F1183" t="n">
+        <v>0.001984957900295634</v>
+      </c>
+      <c r="G1183" t="n">
+        <v>2.093433723393535e-05</v>
+      </c>
+      <c r="H1183" t="n">
+        <v>0.02506289437793786</v>
+      </c>
+    </row>
+    <row r="1184">
+      <c r="A1184" t="inlineStr"/>
+      <c r="B1184" t="inlineStr"/>
+      <c r="C1184" t="inlineStr"/>
+      <c r="D1184" t="inlineStr"/>
+      <c r="E1184" t="n">
+        <v>0.01052712360109193</v>
+      </c>
+      <c r="F1184" t="n">
+        <v>0.001070080156389274</v>
+      </c>
+      <c r="G1184" t="n">
+        <v>1.126486606938567e-05</v>
+      </c>
+      <c r="H1184" t="n">
+        <v>0.02319440751496242</v>
+      </c>
+    </row>
+    <row r="1185">
+      <c r="A1185" t="inlineStr"/>
+      <c r="B1185" t="inlineStr"/>
+      <c r="C1185" t="inlineStr"/>
+      <c r="D1185" t="inlineStr"/>
+      <c r="E1185" t="n">
+        <v>0.01050168114827216</v>
+      </c>
+      <c r="F1185" t="n">
+        <v>0.001984957900295634</v>
+      </c>
+      <c r="G1185" t="n">
+        <v>2.084539496164856e-05</v>
+      </c>
+      <c r="H1185" t="n">
+        <v>0.02497327809713559</v>
+      </c>
+    </row>
+    <row r="1186">
+      <c r="A1186" t="inlineStr"/>
+      <c r="B1186" t="inlineStr"/>
+      <c r="C1186" t="inlineStr"/>
+      <c r="D1186" t="inlineStr"/>
+      <c r="E1186" t="n">
+        <v>0.01052711435291257</v>
+      </c>
+      <c r="F1186" t="n">
+        <v>0.001040354729427866</v>
+      </c>
+      <c r="G1186" t="n">
+        <v>1.095193320428057e-05</v>
+      </c>
+      <c r="H1186" t="n">
+        <v>0.02313493816468088</v>
+      </c>
+    </row>
+    <row r="1187">
+      <c r="A1187" t="inlineStr"/>
+      <c r="B1187" t="inlineStr"/>
+      <c r="C1187" t="inlineStr"/>
+      <c r="D1187" t="inlineStr"/>
+      <c r="E1187" t="n">
+        <v>0.0105495333624798</v>
+      </c>
+      <c r="F1187" t="n">
+        <v>0.001070080156389274</v>
+      </c>
+      <c r="G1187" t="n">
+        <v>1.128884631035625e-05</v>
+      </c>
+      <c r="H1187" t="n">
+        <v>0.02323922703773815</v>
+      </c>
+    </row>
+    <row r="1188">
+      <c r="A1188" t="inlineStr"/>
+      <c r="B1188" t="inlineStr"/>
+      <c r="C1188" t="inlineStr"/>
+      <c r="D1188" t="inlineStr"/>
+      <c r="E1188" t="n">
+        <v>0.01057776449707604</v>
+      </c>
+      <c r="F1188" t="n">
+        <v>0.001060658040116724</v>
+      </c>
+      <c r="G1188" t="n">
+        <v>1.121939096028494e-05</v>
+      </c>
+      <c r="H1188" t="n">
+        <v>0.02327684507438553</v>
+      </c>
+    </row>
+    <row r="1189">
+      <c r="A1189" t="inlineStr"/>
+      <c r="B1189" t="inlineStr"/>
+      <c r="C1189" t="inlineStr"/>
+      <c r="D1189" t="inlineStr"/>
+      <c r="E1189" t="n">
+        <v>0.01052699697217453</v>
+      </c>
+      <c r="F1189" t="n">
+        <v>0.0005776674267626717</v>
+      </c>
+      <c r="G1189" t="n">
+        <v>6.081103252454499e-06</v>
+      </c>
+      <c r="H1189" t="n">
+        <v>0.02220932879787441</v>
+      </c>
+    </row>
+    <row r="1190">
+      <c r="A1190" t="inlineStr"/>
+      <c r="B1190" t="inlineStr"/>
+      <c r="C1190" t="inlineStr"/>
+      <c r="D1190" t="inlineStr"/>
+      <c r="E1190" t="n">
+        <v>0.01055032230331911</v>
+      </c>
+      <c r="F1190" t="n">
+        <v>0.001088100678497658</v>
+      </c>
+      <c r="G1190" t="n">
+        <v>1.147981285661051e-05</v>
+      </c>
+      <c r="H1190" t="n">
+        <v>0.02327684596363354</v>
+      </c>
+    </row>
+    <row r="1191">
+      <c r="A1191" t="inlineStr"/>
+      <c r="B1191" t="inlineStr"/>
+      <c r="C1191" t="inlineStr"/>
+      <c r="D1191" t="inlineStr"/>
+      <c r="E1191" t="n">
+        <v>0.01049955406701919</v>
+      </c>
+      <c r="F1191" t="n">
+        <v>0.001088100678497658</v>
+      </c>
+      <c r="G1191" t="n">
+        <v>1.142457190424644e-05</v>
+      </c>
+      <c r="H1191" t="n">
+        <v>0.0231753094910337</v>
+      </c>
+    </row>
+    <row r="1192">
+      <c r="A1192" t="inlineStr"/>
+      <c r="B1192" t="inlineStr"/>
+      <c r="C1192" t="inlineStr"/>
+      <c r="D1192" t="inlineStr"/>
+      <c r="E1192" t="n">
+        <v>0.001887878160899654</v>
+      </c>
+      <c r="F1192" t="n">
+        <v>0.001603403452365275</v>
+      </c>
+      <c r="G1192" t="n">
+        <v>3.02703036083151e-06</v>
+      </c>
+      <c r="H1192" t="n">
+        <v>0.006982563226529856</v>
+      </c>
+    </row>
+    <row r="1193">
+      <c r="A1193" t="inlineStr"/>
+      <c r="B1193" t="inlineStr"/>
+      <c r="C1193" t="inlineStr"/>
+      <c r="D1193" t="inlineStr"/>
+      <c r="E1193" t="n">
+        <v>0.001864888254106505</v>
+      </c>
+      <c r="F1193" t="n">
+        <v>0.001622452923352342</v>
+      </c>
+      <c r="G1193" t="n">
+        <v>3.025693399600543e-06</v>
+      </c>
+      <c r="H1193" t="n">
+        <v>0.006974682354917693</v>
+      </c>
+    </row>
+    <row r="1194">
+      <c r="A1194" t="inlineStr"/>
+      <c r="B1194" t="inlineStr"/>
+      <c r="C1194" t="inlineStr"/>
+      <c r="D1194" t="inlineStr"/>
+      <c r="E1194" t="n">
+        <v>0.01046200147902576</v>
+      </c>
+      <c r="F1194" t="n">
+        <v>0.0005072917608083899</v>
+      </c>
+      <c r="G1194" t="n">
+        <v>5.307287151874955e-06</v>
+      </c>
+      <c r="H1194" t="n">
+        <v>0.02193858647966829</v>
+      </c>
+    </row>
+    <row r="1195">
+      <c r="A1195" t="inlineStr"/>
+      <c r="B1195" t="inlineStr"/>
+      <c r="C1195" t="inlineStr"/>
+      <c r="D1195" t="inlineStr"/>
+      <c r="E1195" t="n">
+        <v>0.001863978375537092</v>
+      </c>
+      <c r="F1195" t="n">
+        <v>0.001616418842018673</v>
+      </c>
+      <c r="G1195" t="n">
+        <v>3.012969767333513e-06</v>
+      </c>
+      <c r="H1195" t="n">
+        <v>0.006960794435111529</v>
+      </c>
+    </row>
+    <row r="1196">
+      <c r="A1196" t="inlineStr"/>
+      <c r="B1196" t="inlineStr"/>
+      <c r="C1196" t="inlineStr"/>
+      <c r="D1196" t="inlineStr"/>
+      <c r="E1196" t="n">
+        <v>0.001850821061900426</v>
+      </c>
+      <c r="F1196" t="n">
+        <v>0.001618204274184103</v>
+      </c>
+      <c r="G1196" t="n">
+        <v>2.99500655311723e-06</v>
+      </c>
+      <c r="H1196" t="n">
+        <v>0.006938050672169059</v>
+      </c>
+    </row>
+    <row r="1197">
+      <c r="A1197" t="inlineStr"/>
+      <c r="B1197" t="inlineStr"/>
+      <c r="C1197" t="inlineStr"/>
+      <c r="D1197" t="inlineStr"/>
+      <c r="E1197" t="n">
+        <v>0.009822090781722137</v>
+      </c>
+      <c r="F1197" t="n">
+        <v>0.005522197807344887</v>
+      </c>
+      <c r="G1197" t="n">
+        <v>5.423952817836841e-05</v>
+      </c>
+      <c r="H1197" t="n">
+        <v>0.03068857717813405</v>
+      </c>
+    </row>
+    <row r="1198">
+      <c r="A1198" t="inlineStr"/>
+      <c r="B1198" t="inlineStr"/>
+      <c r="C1198" t="inlineStr"/>
+      <c r="D1198" t="inlineStr"/>
+      <c r="E1198" t="n">
+        <v>0.009822090781722137</v>
+      </c>
+      <c r="F1198" t="n">
+        <v>0.005522197807344887</v>
+      </c>
+      <c r="G1198" t="n">
+        <v>5.423952817836841e-05</v>
+      </c>
+      <c r="H1198" t="n">
+        <v>0.03068857717813405</v>
+      </c>
+    </row>
+    <row r="1199">
+      <c r="A1199" t="inlineStr"/>
+      <c r="B1199" t="inlineStr"/>
+      <c r="C1199" t="inlineStr"/>
+      <c r="D1199" t="inlineStr"/>
+      <c r="E1199" t="n">
+        <v>0.009822090781722137</v>
+      </c>
+      <c r="F1199" t="n">
+        <v>0.005522197807344887</v>
+      </c>
+      <c r="G1199" t="n">
+        <v>5.423952817836841e-05</v>
+      </c>
+      <c r="H1199" t="n">
+        <v>0.03068857717813405</v>
+      </c>
+    </row>
+    <row r="1200">
+      <c r="A1200" t="inlineStr"/>
+      <c r="B1200" t="inlineStr"/>
+      <c r="C1200" t="inlineStr"/>
+      <c r="D1200" t="inlineStr"/>
+      <c r="E1200" t="n">
+        <v>0.001862441043567974</v>
+      </c>
+      <c r="F1200" t="n">
+        <v>0.001611727703037944</v>
+      </c>
+      <c r="G1200" t="n">
+        <v>3.001747825193402e-06</v>
+      </c>
+      <c r="H1200" t="n">
+        <v>0.006948337493211837</v>
+      </c>
+    </row>
+    <row r="1201">
+      <c r="A1201" t="inlineStr"/>
+      <c r="B1201" t="inlineStr"/>
+      <c r="C1201" t="inlineStr"/>
+      <c r="D1201" t="inlineStr"/>
+      <c r="E1201" t="n">
+        <v>0.001840707466371059</v>
+      </c>
+      <c r="F1201" t="n">
+        <v>0.001618204274184103</v>
+      </c>
+      <c r="G1201" t="n">
+        <v>2.978640689604238e-06</v>
+      </c>
+      <c r="H1201" t="n">
+        <v>0.006917823481110323</v>
+      </c>
+    </row>
+    <row r="1202">
+      <c r="A1202" t="inlineStr"/>
+      <c r="B1202" t="inlineStr"/>
+      <c r="C1202" t="inlineStr"/>
+      <c r="D1202" t="inlineStr"/>
+      <c r="E1202" t="n">
+        <v>0.001862441043567974</v>
+      </c>
+      <c r="F1202" t="n">
+        <v>0.001611727703037944</v>
+      </c>
+      <c r="G1202" t="n">
+        <v>3.001747825193402e-06</v>
+      </c>
+      <c r="H1202" t="n">
+        <v>0.006948337493211837</v>
+      </c>
+    </row>
+    <row r="1203">
+      <c r="A1203" t="inlineStr"/>
+      <c r="B1203" t="inlineStr"/>
+      <c r="C1203" t="inlineStr"/>
+      <c r="D1203" t="inlineStr"/>
+      <c r="E1203" t="n">
+        <v>0.001862441043567974</v>
+      </c>
+      <c r="F1203" t="n">
+        <v>0.001623666569043834</v>
+      </c>
+      <c r="G1203" t="n">
+        <v>3.02398325925643e-06</v>
+      </c>
+      <c r="H1203" t="n">
+        <v>0.006972215225223615</v>
+      </c>
+    </row>
+    <row r="1204">
+      <c r="A1204" t="inlineStr"/>
+      <c r="B1204" t="inlineStr"/>
+      <c r="C1204" t="inlineStr"/>
+      <c r="D1204" t="inlineStr"/>
+      <c r="E1204" t="n">
+        <v>0.01051775875239158</v>
+      </c>
+      <c r="F1204" t="n">
+        <v>0.001033335894841883</v>
+      </c>
+      <c r="G1204" t="n">
+        <v>1.08683776521336e-05</v>
+      </c>
+      <c r="H1204" t="n">
+        <v>0.02310218929446693</v>
+      </c>
+    </row>
+    <row r="1205">
+      <c r="A1205" t="inlineStr"/>
+      <c r="B1205" t="inlineStr"/>
+      <c r="C1205" t="inlineStr"/>
+      <c r="D1205" t="inlineStr"/>
+      <c r="E1205" t="n">
+        <v>0.01047090320735966</v>
+      </c>
+      <c r="F1205" t="n">
+        <v>0.001094783910882609</v>
+      </c>
+      <c r="G1205" t="n">
+        <v>1.146337636382646e-05</v>
+      </c>
+      <c r="H1205" t="n">
+        <v>0.02313137423648454</v>
+      </c>
+    </row>
+    <row r="1206">
+      <c r="A1206" t="inlineStr"/>
+      <c r="B1206" t="inlineStr"/>
+      <c r="C1206" t="inlineStr"/>
+      <c r="D1206" t="inlineStr"/>
+      <c r="E1206" t="n">
+        <v>0.01048397728738208</v>
+      </c>
+      <c r="F1206" t="n">
+        <v>0.001656612140918806</v>
+      </c>
+      <c r="G1206" t="n">
+        <v>1.736788405939416e-05</v>
+      </c>
+      <c r="H1206" t="n">
+        <v>0.02428117885660177</v>
+      </c>
+    </row>
+    <row r="1207">
+      <c r="A1207" t="inlineStr"/>
+      <c r="B1207" t="inlineStr"/>
+      <c r="C1207" t="inlineStr"/>
+      <c r="D1207" t="inlineStr"/>
+      <c r="E1207" t="n">
+        <v>0.01049994675894282</v>
+      </c>
+      <c r="F1207" t="n">
+        <v>0.001605637776928906</v>
+      </c>
+      <c r="G1207" t="n">
+        <v>1.685911117190082e-05</v>
+      </c>
+      <c r="H1207" t="n">
+        <v>0.02421116907174345</v>
+      </c>
+    </row>
+    <row r="1208">
+      <c r="A1208" t="inlineStr"/>
+      <c r="B1208" t="inlineStr"/>
+      <c r="C1208" t="inlineStr"/>
+      <c r="D1208" t="inlineStr"/>
+      <c r="E1208" t="n">
+        <v>0.0104437811428883</v>
+      </c>
+      <c r="F1208" t="n">
+        <v>0.000515655093931339</v>
+      </c>
+      <c r="G1208" t="n">
+        <v>5.385388946234413e-06</v>
+      </c>
+      <c r="H1208" t="n">
+        <v>0.02191887247363927</v>
+      </c>
+    </row>
+    <row r="1209">
+      <c r="A1209" t="inlineStr"/>
+      <c r="B1209" t="inlineStr"/>
+      <c r="C1209" t="inlineStr"/>
+      <c r="D1209" t="inlineStr"/>
+      <c r="E1209" t="n">
+        <v>0.01042711094389138</v>
+      </c>
+      <c r="F1209" t="n">
+        <v>0.002351323814272428</v>
+      </c>
+      <c r="G1209" t="n">
+        <v>2.451751427643246e-05</v>
+      </c>
+      <c r="H1209" t="n">
+        <v>0.02555686951632762</v>
+      </c>
+    </row>
+    <row r="1210">
+      <c r="A1210" t="inlineStr"/>
+      <c r="B1210" t="inlineStr"/>
+      <c r="C1210" t="inlineStr"/>
+      <c r="D1210" t="inlineStr"/>
+      <c r="E1210" t="n">
+        <v>0.01038722141211333</v>
+      </c>
+      <c r="F1210" t="n">
+        <v>0.001620991533163744</v>
+      </c>
+      <c r="G1210" t="n">
+        <v>1.683759796213285e-05</v>
+      </c>
+      <c r="H1210" t="n">
+        <v>0.02401642589055414</v>
+      </c>
+    </row>
+    <row r="1211">
+      <c r="A1211" t="inlineStr"/>
+      <c r="B1211" t="inlineStr"/>
+      <c r="C1211" t="inlineStr"/>
+      <c r="D1211" t="inlineStr"/>
+      <c r="E1211" t="n">
+        <v>0.01044363886320583</v>
+      </c>
+      <c r="F1211" t="n">
+        <v>0.000492671234024695</v>
+      </c>
+      <c r="G1211" t="n">
+        <v>5.145280446443877e-06</v>
+      </c>
+      <c r="H1211" t="n">
+        <v>0.02187262019446104</v>
+      </c>
+    </row>
+    <row r="1212">
+      <c r="A1212" t="inlineStr"/>
+      <c r="B1212" t="inlineStr"/>
+      <c r="C1212" t="inlineStr"/>
+      <c r="D1212" t="inlineStr"/>
+      <c r="E1212" t="n">
+        <v>0.01104285188013495</v>
+      </c>
+      <c r="F1212" t="n">
+        <v>0.00637775292689226</v>
+      </c>
+      <c r="G1212" t="n">
+        <v>7.042858089976833e-05</v>
+      </c>
+      <c r="H1212" t="n">
+        <v>0.03484120961405441</v>
+      </c>
+    </row>
+    <row r="1213">
+      <c r="A1213" t="inlineStr"/>
+      <c r="B1213" t="inlineStr"/>
+      <c r="C1213" t="inlineStr"/>
+      <c r="D1213" t="inlineStr"/>
+      <c r="E1213" t="n">
+        <v>0.01300383512038512</v>
+      </c>
+      <c r="F1213" t="n">
+        <v>0.005082788705679452</v>
+      </c>
+      <c r="G1213" t="n">
+        <v>6.609574628041127e-05</v>
+      </c>
+      <c r="H1213" t="n">
+        <v>0.03617324765212913</v>
+      </c>
+    </row>
+    <row r="1214">
+      <c r="A1214" t="inlineStr"/>
+      <c r="B1214" t="inlineStr"/>
+      <c r="C1214" t="inlineStr"/>
+      <c r="D1214" t="inlineStr"/>
+      <c r="E1214" t="n">
+        <v>0.01323871753419521</v>
+      </c>
+      <c r="F1214" t="n">
+        <v>0.005094258582281991</v>
+      </c>
+      <c r="G1214" t="n">
+        <v>6.744145041698105e-05</v>
+      </c>
+      <c r="H1214" t="n">
+        <v>0.03666595223295441</v>
+      </c>
+    </row>
+    <row r="1215">
+      <c r="A1215" t="inlineStr"/>
+      <c r="B1215" t="inlineStr"/>
+      <c r="C1215" t="inlineStr"/>
+      <c r="D1215" t="inlineStr"/>
+      <c r="E1215" t="n">
+        <v>0.01289808290079361</v>
+      </c>
+      <c r="F1215" t="n">
+        <v>0.0056633317826745</v>
+      </c>
+      <c r="G1215" t="n">
+        <v>7.304612282763499e-05</v>
+      </c>
+      <c r="H1215" t="n">
+        <v>0.03712282936693623</v>
+      </c>
+    </row>
+    <row r="1216">
+      <c r="A1216" t="inlineStr"/>
+      <c r="B1216" t="inlineStr"/>
+      <c r="C1216" t="inlineStr"/>
+      <c r="D1216" t="inlineStr"/>
+      <c r="E1216" t="n">
+        <v>0.03198320063950733</v>
+      </c>
+      <c r="F1216" t="n">
+        <v>0.008864798219523436</v>
+      </c>
+      <c r="G1216" t="n">
+        <v>0.0002835246200837654</v>
+      </c>
+      <c r="H1216" t="n">
+        <v>0.08169599771806155</v>
+      </c>
+    </row>
+    <row r="1217">
+      <c r="A1217" t="inlineStr"/>
+      <c r="B1217" t="inlineStr"/>
+      <c r="C1217" t="inlineStr"/>
+      <c r="D1217" t="inlineStr"/>
+      <c r="E1217" t="n">
+        <v>0.01618300490819375</v>
+      </c>
+      <c r="F1217" t="n">
+        <v>0.009232379913386959</v>
+      </c>
+      <c r="G1217" t="n">
+        <v>0.0001494076494526505</v>
+      </c>
+      <c r="H1217" t="n">
+        <v>0.05083076964316142</v>
+      </c>
+    </row>
+    <row r="1218">
+      <c r="A1218" t="inlineStr"/>
+      <c r="B1218" t="inlineStr"/>
+      <c r="C1218" t="inlineStr"/>
+      <c r="D1218" t="inlineStr"/>
+      <c r="E1218" t="n">
+        <v>0.03362640861154038</v>
+      </c>
+      <c r="F1218" t="n">
+        <v>0.01077451382178821</v>
+      </c>
+      <c r="G1218" t="n">
+        <v>0.0003623082043621399</v>
+      </c>
+      <c r="H1218" t="n">
+        <v>0.0888018448666572</v>
+      </c>
+    </row>
+    <row r="1219">
+      <c r="A1219" t="inlineStr"/>
+      <c r="B1219" t="inlineStr"/>
+      <c r="C1219" t="inlineStr"/>
+      <c r="D1219" t="inlineStr"/>
+      <c r="E1219" t="n">
+        <v>0.0382064541933977</v>
+      </c>
+      <c r="F1219" t="n">
+        <v>0.01789218939178623</v>
+      </c>
+      <c r="G1219" t="n">
+        <v>0.0006835971144168768</v>
+      </c>
+      <c r="H1219" t="n">
+        <v>0.1121972871703679</v>
+      </c>
+    </row>
+    <row r="1220">
+      <c r="A1220" t="inlineStr"/>
+      <c r="B1220" t="inlineStr"/>
+      <c r="C1220" t="inlineStr"/>
+      <c r="D1220" t="inlineStr"/>
+      <c r="E1220" t="n">
+        <v>0.05016541435884279</v>
+      </c>
+      <c r="F1220" t="n">
+        <v>0.01175511393017118</v>
+      </c>
+      <c r="G1220" t="n">
+        <v>0.0005897001611424422</v>
+      </c>
+      <c r="H1220" t="n">
+        <v>0.1238410565780279</v>
+      </c>
+    </row>
+    <row r="1221">
+      <c r="A1221" t="inlineStr"/>
+      <c r="B1221" t="inlineStr"/>
+      <c r="C1221" t="inlineStr"/>
+      <c r="D1221" t="inlineStr"/>
+      <c r="E1221" t="n">
+        <v>0.04086684807136476</v>
+      </c>
+      <c r="F1221" t="n">
+        <v>0.01017130132298478</v>
+      </c>
+      <c r="G1221" t="n">
+        <v>0.0004156690258544904</v>
+      </c>
+      <c r="H1221" t="n">
+        <v>0.1020762987886991</v>
+      </c>
+    </row>
+    <row r="1222">
+      <c r="A1222" t="inlineStr"/>
+      <c r="B1222" t="inlineStr"/>
+      <c r="C1222" t="inlineStr"/>
+      <c r="D1222" t="inlineStr"/>
+      <c r="E1222" t="n">
+        <v>0.01166346731830002</v>
+      </c>
+      <c r="F1222" t="n">
+        <v>0.002741302642201998</v>
+      </c>
+      <c r="G1222" t="n">
+        <v>3.197309377689251e-05</v>
+      </c>
+      <c r="H1222" t="n">
+        <v>0.02880953992100404</v>
+      </c>
+    </row>
+    <row r="1223">
+      <c r="A1223" t="inlineStr"/>
+      <c r="B1223" t="inlineStr"/>
+      <c r="C1223" t="inlineStr"/>
+      <c r="D1223" t="inlineStr"/>
+      <c r="E1223" t="n">
+        <v>0.04040583059862298</v>
+      </c>
+      <c r="F1223" t="n">
+        <v>0.01642102174340872</v>
+      </c>
+      <c r="G1223" t="n">
+        <v>0.0006635050228204775</v>
+      </c>
+      <c r="H1223" t="n">
+        <v>0.1136537046840634</v>
+      </c>
+    </row>
+    <row r="1224">
+      <c r="A1224" t="inlineStr"/>
+      <c r="B1224" t="inlineStr"/>
+      <c r="C1224" t="inlineStr"/>
+      <c r="D1224" t="inlineStr"/>
+      <c r="E1224" t="n">
+        <v>0.03510657544983429</v>
+      </c>
+      <c r="F1224" t="n">
+        <v>0.01518614792329145</v>
+      </c>
+      <c r="G1224" t="n">
+        <v>0.0005331336478613754</v>
+      </c>
+      <c r="H1224" t="n">
+        <v>0.1005854467462515</v>
+      </c>
+    </row>
+    <row r="1225">
+      <c r="A1225" t="inlineStr"/>
+      <c r="B1225" t="inlineStr"/>
+      <c r="C1225" t="inlineStr"/>
+      <c r="D1225" t="inlineStr"/>
+      <c r="E1225" t="n">
+        <v>0.03678569196812981</v>
+      </c>
+      <c r="F1225" t="n">
+        <v>0.01328364234393598</v>
+      </c>
+      <c r="G1225" t="n">
+        <v>0.0004886479754788347</v>
+      </c>
+      <c r="H1225" t="n">
+        <v>0.1001386686241316</v>
+      </c>
+    </row>
+    <row r="1226">
+      <c r="A1226" t="inlineStr"/>
+      <c r="B1226" t="inlineStr"/>
+      <c r="C1226" t="inlineStr"/>
+      <c r="D1226" t="inlineStr"/>
+      <c r="E1226" t="n">
+        <v>0.04000583688169376</v>
+      </c>
+      <c r="F1226" t="n">
+        <v>0.01688008429331332</v>
+      </c>
+      <c r="G1226" t="n">
+        <v>0.0006753018987875337</v>
+      </c>
+      <c r="H1226" t="n">
+        <v>0.1137718423500142</v>
+      </c>
+    </row>
+    <row r="1227">
+      <c r="A1227" t="inlineStr"/>
+      <c r="B1227" t="inlineStr"/>
+      <c r="C1227" t="inlineStr"/>
+      <c r="D1227" t="inlineStr"/>
+      <c r="E1227" t="n">
+        <v>0.04048330757691668</v>
+      </c>
+      <c r="F1227" t="n">
+        <v>0.01682748349470315</v>
+      </c>
+      <c r="G1227" t="n">
+        <v>0.0006812321900615566</v>
+      </c>
+      <c r="H1227" t="n">
+        <v>0.1146215821432397</v>
+      </c>
+    </row>
+    <row r="1228">
+      <c r="A1228" t="inlineStr"/>
+      <c r="B1228" t="inlineStr"/>
+      <c r="C1228" t="inlineStr"/>
+      <c r="D1228" t="inlineStr"/>
+      <c r="E1228" t="n">
+        <v>0.001834807483638121</v>
+      </c>
+      <c r="F1228" t="n">
+        <v>0.001793107087201396</v>
+      </c>
+      <c r="G1228" t="n">
+        <v>3.290006302561675e-06</v>
+      </c>
+      <c r="H1228" t="n">
+        <v>0.007255829141679035</v>
+      </c>
+    </row>
+    <row r="1229">
+      <c r="A1229" t="inlineStr"/>
+      <c r="B1229" t="inlineStr"/>
+      <c r="C1229" t="inlineStr"/>
+      <c r="D1229" t="inlineStr"/>
+      <c r="E1229" t="n">
+        <v>0.04185655123383233</v>
+      </c>
+      <c r="F1229" t="n">
+        <v>0.01139347454724613</v>
+      </c>
+      <c r="G1229" t="n">
+        <v>0.0004768915511181723</v>
+      </c>
+      <c r="H1229" t="n">
+        <v>0.1065000515621569</v>
+      </c>
+    </row>
+    <row r="1230">
+      <c r="A1230" t="inlineStr"/>
+      <c r="B1230" t="inlineStr"/>
+      <c r="C1230" t="inlineStr"/>
+      <c r="D1230" t="inlineStr"/>
+      <c r="E1230" t="n">
+        <v>0.03527455937974254</v>
+      </c>
+      <c r="F1230" t="n">
+        <v>0.01015379736504858</v>
+      </c>
+      <c r="G1230" t="n">
+        <v>0.0003581707280832793</v>
+      </c>
+      <c r="H1230" t="n">
+        <v>0.09085671348958223</v>
+      </c>
+    </row>
+    <row r="1231">
+      <c r="A1231" t="inlineStr"/>
+      <c r="B1231" t="inlineStr"/>
+      <c r="C1231" t="inlineStr"/>
+      <c r="D1231" t="inlineStr"/>
+      <c r="E1231" t="n">
+        <v>0.03501082406912379</v>
+      </c>
+      <c r="F1231" t="n">
+        <v>0.01002193113253603</v>
+      </c>
+      <c r="G1231" t="n">
+        <v>0.0003508760677140935</v>
+      </c>
+      <c r="H1231" t="n">
+        <v>0.09006551040331964</v>
+      </c>
+    </row>
+    <row r="1232">
+      <c r="A1232" t="inlineStr"/>
+      <c r="B1232" t="inlineStr"/>
+      <c r="C1232" t="inlineStr"/>
+      <c r="D1232" t="inlineStr"/>
+      <c r="E1232" t="n">
+        <v>0.03544202256601293</v>
+      </c>
+      <c r="F1232" t="n">
+        <v>0.008136690481250214</v>
+      </c>
+      <c r="G1232" t="n">
+        <v>0.0002883807676491327</v>
+      </c>
+      <c r="H1232" t="n">
+        <v>0.0871574260945263</v>
+      </c>
+    </row>
+    <row r="1233">
+      <c r="A1233" t="inlineStr"/>
+      <c r="B1233" t="inlineStr"/>
+      <c r="C1233" t="inlineStr"/>
+      <c r="D1233" t="inlineStr"/>
+      <c r="E1233" t="n">
+        <v>0.04076450629576213</v>
+      </c>
+      <c r="F1233" t="n">
+        <v>0.01347349466104028</v>
+      </c>
+      <c r="G1233" t="n">
+        <v>0.000549240357935894</v>
+      </c>
+      <c r="H1233" t="n">
+        <v>0.1084760019136048</v>
+      </c>
+    </row>
+    <row r="1234">
+      <c r="A1234" t="inlineStr"/>
+      <c r="B1234" t="inlineStr"/>
+      <c r="C1234" t="inlineStr"/>
+      <c r="D1234" t="inlineStr"/>
+      <c r="E1234" t="n">
+        <v>0.04160680770718796</v>
+      </c>
+      <c r="F1234" t="n">
+        <v>0.0116842494001204</v>
+      </c>
+      <c r="G1234" t="n">
+        <v>0.0004861443179936359</v>
+      </c>
+      <c r="H1234" t="n">
+        <v>0.1065821142146167</v>
+      </c>
+    </row>
+    <row r="1235">
+      <c r="A1235" t="inlineStr"/>
+      <c r="B1235" t="inlineStr"/>
+      <c r="C1235" t="inlineStr"/>
+      <c r="D1235" t="inlineStr"/>
+      <c r="E1235" t="n">
+        <v>0.04164719237226101</v>
+      </c>
+      <c r="F1235" t="n">
+        <v>0.01057640501471001</v>
+      </c>
+      <c r="G1235" t="n">
+        <v>0.000440477574254574</v>
+      </c>
+      <c r="H1235" t="n">
+        <v>0.1044471947739421</v>
+      </c>
+    </row>
+    <row r="1236">
+      <c r="A1236" t="inlineStr"/>
+      <c r="B1236" t="inlineStr"/>
+      <c r="C1236" t="inlineStr"/>
+      <c r="D1236" t="inlineStr"/>
+      <c r="E1236" t="n">
+        <v>0.04073680728717834</v>
+      </c>
+      <c r="F1236" t="n">
+        <v>0.0139989762123168</v>
+      </c>
+      <c r="G1236" t="n">
+        <v>0.0005702735961789432</v>
+      </c>
+      <c r="H1236" t="n">
+        <v>0.1094715669989903</v>
+      </c>
+    </row>
+    <row r="1237">
+      <c r="A1237" t="inlineStr"/>
+      <c r="B1237" t="inlineStr"/>
+      <c r="C1237" t="inlineStr"/>
+      <c r="D1237" t="inlineStr"/>
+      <c r="E1237" t="n">
+        <v>0.03550003852933802</v>
+      </c>
+      <c r="F1237" t="n">
+        <v>0.01007036598204339</v>
+      </c>
+      <c r="G1237" t="n">
+        <v>0.0003574983803670753</v>
+      </c>
+      <c r="H1237" t="n">
+        <v>0.09114080902276281</v>
+      </c>
+    </row>
+    <row r="1238">
+      <c r="A1238" t="inlineStr"/>
+      <c r="B1238" t="inlineStr"/>
+      <c r="C1238" t="inlineStr"/>
+      <c r="D1238" t="inlineStr"/>
+      <c r="E1238" t="n">
+        <v>0.03591307929314998</v>
+      </c>
+      <c r="F1238" t="n">
+        <v>0.01006894318521867</v>
+      </c>
+      <c r="G1238" t="n">
+        <v>0.0003616067550089801</v>
+      </c>
+      <c r="H1238" t="n">
+        <v>0.0919640449567373</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
